--- a/MatricesTOPSIS/TOPSIS VF Caso Base.xlsx
+++ b/MatricesTOPSIS/TOPSIS VF Caso Base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rikig\OneDrive\Escritorio\Proyecto de Título\Mesa 5\Metodos Multicriterios\TOPSIS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A916C797-AA9F-479B-8582-4BD2713088C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34967E47-8D50-4C43-AEFC-34ABBED9ED79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9665085C-535A-4940-A345-C859AA46C31E}"/>
   </bookViews>
@@ -201,9 +201,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -897,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1130,16 +1131,16 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1173,6 +1174,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1199,15 +1218,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,15 +1225,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1236,6 +1237,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1574,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAD2225-2627-4A1C-A353-A4598C533E5C}">
   <dimension ref="B1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -1600,21 +1604,21 @@
   <sheetData>
     <row r="1" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="96" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1632,8 +1636,8 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="56.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
@@ -1651,10 +1655,10 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="14">
         <v>0.26150000000000001</v>
       </c>
@@ -1676,7 +1680,7 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -1688,7 +1692,7 @@
       </c>
       <c r="E6" s="7">
         <f>'C.Eco.'!D96</f>
-        <v>0.98088570358101068</v>
+        <v>0.9734558614971327</v>
       </c>
       <c r="F6" s="7">
         <f>'C.Soc.'!D93</f>
@@ -1704,7 +1708,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="102"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1718,7 @@
       </c>
       <c r="E7" s="32">
         <f>'C.Eco.'!D97</f>
-        <v>0.9817392506837086</v>
+        <v>0.98078208779838316</v>
       </c>
       <c r="F7" s="32">
         <f>'C.Soc.'!D94</f>
@@ -1730,7 +1734,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="102"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
@@ -1740,7 +1744,7 @@
       </c>
       <c r="E8" s="32">
         <f>'C.Eco.'!D98</f>
-        <v>0.99999886787408954</v>
+        <v>0.99993307007028986</v>
       </c>
       <c r="F8" s="32">
         <f>'C.Soc.'!D95</f>
@@ -1756,7 +1760,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="102"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
@@ -1766,7 +1770,7 @@
       </c>
       <c r="E9" s="32">
         <f>'C.Eco.'!D99</f>
-        <v>0.98161873392577514</v>
+        <v>0.97982146494996514</v>
       </c>
       <c r="F9" s="32">
         <f>'C.Soc.'!D96</f>
@@ -1782,7 +1786,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="102"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="18" t="s">
         <v>21</v>
       </c>
@@ -1808,7 +1812,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="102"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="16" t="s">
         <v>15</v>
       </c>
@@ -1818,7 +1822,7 @@
       </c>
       <c r="E11" s="32">
         <f>'C.Eco.'!D101</f>
-        <v>0.99999936351751817</v>
+        <v>0.99996250434562539</v>
       </c>
       <c r="F11" s="32">
         <f>'C.Soc.'!D98</f>
@@ -1835,7 +1839,7 @@
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="102"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="16" t="s">
         <v>17</v>
       </c>
@@ -1845,7 +1849,7 @@
       </c>
       <c r="E12" s="32">
         <f>'C.Eco.'!D102</f>
-        <v>0.24707253223307302</v>
+        <v>0.30797476272320701</v>
       </c>
       <c r="F12" s="32">
         <f>'C.Soc.'!D99</f>
@@ -1861,7 +1865,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="102"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="18" t="s">
         <v>10</v>
       </c>
@@ -1871,7 +1875,7 @@
       </c>
       <c r="E13" s="32">
         <f>'C.Eco.'!D103</f>
-        <v>0.24650359920471232</v>
+        <v>0.30318669167485029</v>
       </c>
       <c r="F13" s="32">
         <f>'C.Soc.'!D100</f>
@@ -1887,7 +1891,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="102"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="16" t="s">
         <v>9</v>
       </c>
@@ -1897,7 +1901,7 @@
       </c>
       <c r="E14" s="32">
         <f>'C.Eco.'!D104</f>
-        <v>0.98110126728570146</v>
+        <v>0.97542121701108786</v>
       </c>
       <c r="F14" s="32">
         <f>'C.Soc.'!D101</f>
@@ -1914,7 +1918,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="2:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="102"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
@@ -1924,7 +1928,7 @@
       </c>
       <c r="E15" s="32">
         <f>'C.Eco.'!D105</f>
-        <v>0.98202359210551793</v>
+        <v>0.98295281323903905</v>
       </c>
       <c r="F15" s="32">
         <f>'C.Soc.'!D102</f>
@@ -1941,7 +1945,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="102"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="18" t="s">
         <v>16</v>
       </c>
@@ -1968,7 +1972,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="102"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
@@ -1978,7 +1982,7 @@
       </c>
       <c r="E17" s="32">
         <f>'C.Eco.'!D107</f>
-        <v>0.99999955811570973</v>
+        <v>0.99997401411986164</v>
       </c>
       <c r="F17" s="32">
         <f>'C.Soc.'!D104</f>
@@ -1995,7 +1999,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="102"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="18" t="s">
         <v>18</v>
       </c>
@@ -2005,7 +2009,7 @@
       </c>
       <c r="E18" s="32">
         <f>'C.Eco.'!D108</f>
-        <v>8.5595701422947647E-5</v>
+        <v>5.6320124759969793E-3</v>
       </c>
       <c r="F18" s="32">
         <f>'C.Soc.'!D105</f>
@@ -2022,7 +2026,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="102"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="18" t="s">
         <v>13</v>
       </c>
@@ -2032,7 +2036,7 @@
       </c>
       <c r="E19" s="32">
         <f>'C.Eco.'!D109</f>
-        <v>0.24550952026343362</v>
+        <v>0.29488343526127192</v>
       </c>
       <c r="F19" s="32">
         <f>'C.Soc.'!D106</f>
@@ -2049,7 +2053,7 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="103"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="16" t="s">
         <v>11</v>
       </c>
@@ -2059,7 +2063,7 @@
       </c>
       <c r="E20" s="23">
         <f>'C.Eco.'!D110</f>
-        <v>0.24693023850628334</v>
+        <v>0.30677483623593899</v>
       </c>
       <c r="F20" s="23">
         <f>'C.Soc.'!D107</f>
@@ -2084,7 +2088,7 @@
       </c>
       <c r="E21" s="26" cm="1">
         <f t="array" ref="E21">SQRT(SUMPRODUCT(E6:E20^2))</f>
-        <v>3.0099016603395756</v>
+        <v>3.0256984768933983</v>
       </c>
       <c r="F21" s="26" cm="1">
         <f t="array" ref="F21">SQRT(SUMPRODUCT(F6:F20^2))</f>
@@ -2102,7 +2106,7 @@
     </row>
     <row r="22" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="101" t="s">
+      <c r="B23" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -2114,7 +2118,7 @@
       </c>
       <c r="E23" s="7">
         <f t="shared" ref="E23:G23" si="0">E6/E$21</f>
-        <v>0.32588629605604713</v>
+        <v>0.32172930281427697</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
@@ -2130,7 +2134,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="102"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="16" t="s">
         <v>19</v>
       </c>
@@ -2140,7 +2144,7 @@
       </c>
       <c r="E24" s="5">
         <f t="shared" si="1"/>
-        <v>0.32616987578688844</v>
+        <v>0.32415063671691108</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" si="1"/>
@@ -2156,7 +2160,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="102"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="40" t="s">
         <v>8</v>
       </c>
@@ -2166,7 +2170,7 @@
       </c>
       <c r="E25" s="5">
         <f t="shared" si="2"/>
-        <v>0.33223639198938815</v>
+        <v>0.33048007847000005</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" si="2"/>
@@ -2182,7 +2186,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="102"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="18" t="s">
         <v>14</v>
       </c>
@@ -2192,7 +2196,7 @@
       </c>
       <c r="E26" s="5">
         <f t="shared" si="3"/>
-        <v>0.32612983568872794</v>
+        <v>0.32383314875313873</v>
       </c>
       <c r="F26" s="5">
         <f t="shared" si="3"/>
@@ -2208,7 +2212,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="102"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="18" t="s">
         <v>21</v>
       </c>
@@ -2218,7 +2222,7 @@
       </c>
       <c r="E27" s="5">
         <f t="shared" si="4"/>
-        <v>0.33223676812324177</v>
+        <v>0.33050219895894539</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" si="4"/>
@@ -2234,7 +2238,7 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="102"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="16" t="s">
         <v>15</v>
       </c>
@@ -2244,7 +2248,7 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" si="5"/>
-        <v>0.33223655666035906</v>
+        <v>0.3304898065627232</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="5"/>
@@ -2260,7 +2264,7 @@
       </c>
     </row>
     <row r="29" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="102"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="16" t="s">
         <v>17</v>
       </c>
@@ -2270,7 +2274,7 @@
       </c>
       <c r="E29" s="5">
         <f t="shared" si="6"/>
-        <v>8.2086579601141657E-2</v>
+        <v>0.10178633630387936</v>
       </c>
       <c r="F29" s="5">
         <f t="shared" si="6"/>
@@ -2286,7 +2290,7 @@
       </c>
     </row>
     <row r="30" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="102"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="18" t="s">
         <v>10</v>
       </c>
@@ -2296,7 +2300,7 @@
       </c>
       <c r="E30" s="5">
         <f t="shared" si="7"/>
-        <v>8.1897559130520534E-2</v>
+        <v>0.10020386829362581</v>
       </c>
       <c r="F30" s="5">
         <f t="shared" si="7"/>
@@ -2312,7 +2316,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="102"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="16" t="s">
         <v>9</v>
       </c>
@@ -2322,7 +2326,7 @@
       </c>
       <c r="E31" s="5">
         <f t="shared" si="8"/>
-        <v>0.32595791424461823</v>
+        <v>0.32237885713337522</v>
       </c>
       <c r="F31" s="5">
         <f t="shared" si="8"/>
@@ -2338,7 +2342,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="102"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="18" t="s">
         <v>22</v>
       </c>
@@ -2348,7 +2352,7 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" si="9"/>
-        <v>0.32626434446191394</v>
+        <v>0.32486806624838399</v>
       </c>
       <c r="F32" s="5">
         <f t="shared" si="9"/>
@@ -2364,7 +2368,7 @@
       </c>
     </row>
     <row r="33" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="102"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="18" t="s">
         <v>16</v>
       </c>
@@ -2390,7 +2394,7 @@
       </c>
     </row>
     <row r="34" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="102"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="16" t="s">
         <v>20</v>
       </c>
@@ -2400,7 +2404,7 @@
       </c>
       <c r="E34" s="5">
         <f t="shared" si="11"/>
-        <v>0.33223662131303328</v>
+        <v>0.33049361056841781</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="11"/>
@@ -2416,7 +2420,7 @@
       </c>
     </row>
     <row r="35" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="102"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="18" t="s">
         <v>18</v>
       </c>
@@ -2426,7 +2430,7 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" si="12"/>
-        <v>2.8438039206002093E-5</v>
+        <v>1.8613925078812164E-3</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="12"/>
@@ -2442,7 +2446,7 @@
       </c>
     </row>
     <row r="36" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="102"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="18" t="s">
         <v>13</v>
       </c>
@@ -2452,7 +2456,7 @@
       </c>
       <c r="E36" s="5">
         <f t="shared" si="13"/>
-        <v>8.1567289555810718E-2</v>
+        <v>9.7459623790418184E-2</v>
       </c>
       <c r="F36" s="5">
         <f t="shared" si="13"/>
@@ -2468,7 +2472,7 @@
       </c>
     </row>
     <row r="37" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="103"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="16" t="s">
         <v>11</v>
       </c>
@@ -2478,7 +2482,7 @@
       </c>
       <c r="E37" s="9">
         <f t="shared" si="14"/>
-        <v>8.2039304393228846E-2</v>
+        <v>0.1013897579612482</v>
       </c>
       <c r="F37" s="9">
         <f t="shared" si="14"/>
@@ -2495,7 +2499,7 @@
     </row>
     <row r="38" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="39" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="101" t="s">
+      <c r="B39" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -2507,7 +2511,7 @@
       </c>
       <c r="E39" s="7">
         <f t="shared" ref="E39:H39" si="15">E23*E$5</f>
-        <v>6.6480804395433607E-2</v>
+        <v>6.56327777741125E-2</v>
       </c>
       <c r="F39" s="7">
         <f t="shared" si="15"/>
@@ -2523,7 +2527,7 @@
       </c>
     </row>
     <row r="40" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="102"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="16" t="s">
         <v>19</v>
       </c>
@@ -2533,7 +2537,7 @@
       </c>
       <c r="E40" s="5">
         <f t="shared" si="16"/>
-        <v>6.6538654660525234E-2</v>
+        <v>6.6126729890249855E-2</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="16"/>
@@ -2549,7 +2553,7 @@
       </c>
     </row>
     <row r="41" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="102"/>
+      <c r="B41" s="96"/>
       <c r="C41" s="40" t="s">
         <v>8</v>
       </c>
@@ -2559,7 +2563,7 @@
       </c>
       <c r="E41" s="5">
         <f t="shared" si="17"/>
-        <v>6.7776223965835172E-2</v>
+        <v>6.741793600788E-2</v>
       </c>
       <c r="F41" s="5">
         <f t="shared" si="17"/>
@@ -2575,7 +2579,7 @@
       </c>
     </row>
     <row r="42" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="102"/>
+      <c r="B42" s="96"/>
       <c r="C42" s="18" t="s">
         <v>14</v>
       </c>
@@ -2585,7 +2589,7 @@
       </c>
       <c r="E42" s="5">
         <f t="shared" si="18"/>
-        <v>6.65304864805005E-2</v>
+        <v>6.6061962345640296E-2</v>
       </c>
       <c r="F42" s="5">
         <f t="shared" si="18"/>
@@ -2601,7 +2605,7 @@
       </c>
     </row>
     <row r="43" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="102"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="18" t="s">
         <v>21</v>
       </c>
@@ -2611,7 +2615,7 @@
       </c>
       <c r="E43" s="5">
         <f t="shared" si="19"/>
-        <v>6.7776300697141315E-2</v>
+        <v>6.7422448587624861E-2</v>
       </c>
       <c r="F43" s="5">
         <f t="shared" si="19"/>
@@ -2627,7 +2631,7 @@
       </c>
     </row>
     <row r="44" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="102"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="16" t="s">
         <v>15</v>
       </c>
@@ -2637,7 +2641,7 @@
       </c>
       <c r="E44" s="5">
         <f t="shared" si="20"/>
-        <v>6.7776257558713249E-2</v>
+        <v>6.741992053879553E-2</v>
       </c>
       <c r="F44" s="5">
         <f t="shared" si="20"/>
@@ -2653,7 +2657,7 @@
       </c>
     </row>
     <row r="45" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="102"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="16" t="s">
         <v>17</v>
       </c>
@@ -2663,7 +2667,7 @@
       </c>
       <c r="E45" s="5">
         <f t="shared" si="21"/>
-        <v>1.6745662238632896E-2</v>
+        <v>2.0764412605991388E-2</v>
       </c>
       <c r="F45" s="5">
         <f t="shared" si="21"/>
@@ -2679,7 +2683,7 @@
       </c>
     </row>
     <row r="46" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="102"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="18" t="s">
         <v>10</v>
       </c>
@@ -2689,7 +2693,7 @@
       </c>
       <c r="E46" s="5">
         <f t="shared" si="22"/>
-        <v>1.6707102062626187E-2</v>
+        <v>2.0441589131899664E-2</v>
       </c>
       <c r="F46" s="5">
         <f t="shared" si="22"/>
@@ -2705,7 +2709,7 @@
       </c>
     </row>
     <row r="47" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="102"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="16" t="s">
         <v>9</v>
       </c>
@@ -2715,7 +2719,7 @@
       </c>
       <c r="E47" s="5">
         <f t="shared" si="23"/>
-        <v>6.6495414505902115E-2</v>
+        <v>6.5765286855208535E-2</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="23"/>
@@ -2731,7 +2735,7 @@
       </c>
     </row>
     <row r="48" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="102"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="18" t="s">
         <v>22</v>
       </c>
@@ -2741,7 +2745,7 @@
       </c>
       <c r="E48" s="5">
         <f t="shared" si="24"/>
-        <v>6.6557926270230439E-2</v>
+        <v>6.627308551467033E-2</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="24"/>
@@ -2757,7 +2761,7 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="102"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="18" t="s">
         <v>16</v>
       </c>
@@ -2783,7 +2787,7 @@
       </c>
     </row>
     <row r="50" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="102"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="16" t="s">
         <v>20</v>
       </c>
@@ -2793,7 +2797,7 @@
       </c>
       <c r="E50" s="5">
         <f t="shared" si="26"/>
-        <v>6.7776270747858788E-2</v>
+        <v>6.7420696555957227E-2</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" si="26"/>
@@ -2809,7 +2813,7 @@
       </c>
     </row>
     <row r="51" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="102"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="18" t="s">
         <v>18</v>
       </c>
@@ -2819,7 +2823,7 @@
       </c>
       <c r="E51" s="5">
         <f t="shared" si="27"/>
-        <v>5.8013599980244267E-6</v>
+        <v>3.7972407160776812E-4</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="27"/>
@@ -2835,7 +2839,7 @@
       </c>
     </row>
     <row r="52" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="102"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="18" t="s">
         <v>13</v>
       </c>
@@ -2845,7 +2849,7 @@
       </c>
       <c r="E52" s="5">
         <f t="shared" si="28"/>
-        <v>1.6639727069385386E-2</v>
+        <v>1.9881763253245307E-2</v>
       </c>
       <c r="F52" s="5">
         <f t="shared" si="28"/>
@@ -2861,7 +2865,7 @@
       </c>
     </row>
     <row r="53" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="103"/>
+      <c r="B53" s="97"/>
       <c r="C53" s="16" t="s">
         <v>11</v>
       </c>
@@ -2871,7 +2875,7 @@
       </c>
       <c r="E53" s="37">
         <f t="shared" si="29"/>
-        <v>1.6736018096218684E-2</v>
+        <v>2.0683510624094632E-2</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="29"/>
@@ -2896,7 +2900,7 @@
       </c>
       <c r="E54" s="42">
         <f t="shared" ref="E54:H54" si="30">MAX(E39:E53)</f>
-        <v>6.7776300697141315E-2</v>
+        <v>6.7422448587624861E-2</v>
       </c>
       <c r="F54" s="42">
         <f t="shared" si="30"/>
@@ -2944,29 +2948,29 @@
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D57" s="104" t="s">
+      <c r="D57" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="105"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="105"/>
-      <c r="H57" s="106"/>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="109"/>
       <c r="I57" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="J57" s="107" t="s">
+      <c r="J57" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="K57" s="108"/>
-      <c r="L57" s="108"/>
-      <c r="M57" s="108"/>
-      <c r="N57" s="109"/>
+      <c r="K57" s="93"/>
+      <c r="L57" s="93"/>
+      <c r="M57" s="93"/>
+      <c r="N57" s="94"/>
       <c r="O57" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="101" t="s">
+      <c r="B58" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C58" s="16" t="s">
@@ -2978,7 +2982,7 @@
       </c>
       <c r="E58" s="7">
         <f t="shared" ref="E58:H58" si="32">(E39-E$54)^2</f>
-        <v>1.6783106677383478E-6</v>
+        <v>3.202921620737999E-6</v>
       </c>
       <c r="F58" s="7">
         <f t="shared" si="32"/>
@@ -2994,7 +2998,7 @@
       </c>
       <c r="I58" s="56">
         <f>SQRT(SUM(D58:H58))</f>
-        <v>0.16883928882262525</v>
+        <v>0.16884380373908564</v>
       </c>
       <c r="J58" s="13">
         <f>(D39-D$55)^2</f>
@@ -3002,7 +3006,7 @@
       </c>
       <c r="K58" s="7">
         <f t="shared" ref="K58:N58" si="33">(E39-E$55)^2</f>
-        <v>4.4196973530639047E-3</v>
+        <v>4.3076615183460353E-3</v>
       </c>
       <c r="L58" s="7">
         <f t="shared" si="33"/>
@@ -3018,11 +3022,11 @@
       </c>
       <c r="O58" s="27">
         <f>SQRT(SUM(J58:N58))</f>
-        <v>9.3576458268619669E-2</v>
+        <v>9.297589852956975E-2</v>
       </c>
     </row>
     <row r="59" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="102"/>
+      <c r="B59" s="96"/>
       <c r="C59" s="16" t="s">
         <v>19</v>
       </c>
@@ -3032,7 +3036,7 @@
       </c>
       <c r="E59" s="5">
         <f t="shared" si="34"/>
-        <v>1.5317677119514918E-6</v>
+        <v>1.6788869427271829E-6</v>
       </c>
       <c r="F59" s="5">
         <f t="shared" si="34"/>
@@ -3048,7 +3052,7 @@
       </c>
       <c r="I59" s="19">
         <f t="shared" ref="I59:I72" si="35">SQRT(SUM(D59:H59))</f>
-        <v>0.1681388174626185</v>
+        <v>0.16813925495540449</v>
       </c>
       <c r="J59" s="20">
         <f t="shared" ref="J59:J72" si="36">(D40-D$55)^2</f>
@@ -3056,7 +3060,7 @@
       </c>
       <c r="K59" s="5">
         <f t="shared" ref="K59:K72" si="37">(E40-E$55)^2</f>
-        <v>4.4273925640326362E-3</v>
+        <v>4.3727444059780633E-3</v>
       </c>
       <c r="L59" s="5">
         <f t="shared" ref="L59:L72" si="38">(F40-F$55)^2</f>
@@ -3072,11 +3076,11 @@
       </c>
       <c r="O59" s="47">
         <f t="shared" ref="O59:O72" si="41">SQRT(SUM(J59:N59))</f>
-        <v>0.1178086384016306</v>
+        <v>0.11757647351401375</v>
       </c>
     </row>
     <row r="60" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="102"/>
+      <c r="B60" s="96"/>
       <c r="C60" s="40" t="s">
         <v>8</v>
       </c>
@@ -3086,7 +3090,7 @@
       </c>
       <c r="E60" s="5">
         <f t="shared" si="42"/>
-        <v>5.8876933422994903E-15</v>
+        <v>2.036337595373348E-11</v>
       </c>
       <c r="F60" s="5">
         <f t="shared" si="42"/>
@@ -3102,7 +3106,7 @@
       </c>
       <c r="I60" s="19">
         <f t="shared" si="35"/>
-        <v>0.19614773304945418</v>
+        <v>0.19614773310134745</v>
       </c>
       <c r="J60" s="20">
         <f t="shared" si="36"/>
@@ -3110,7 +3114,7 @@
       </c>
       <c r="K60" s="5">
         <f t="shared" si="37"/>
-        <v>4.5936165350670497E-3</v>
+        <v>4.5451780955626025E-3</v>
       </c>
       <c r="L60" s="5">
         <f t="shared" si="38"/>
@@ -3126,11 +3130,11 @@
       </c>
       <c r="O60" s="47">
         <f t="shared" si="41"/>
-        <v>6.9504594373650114E-2</v>
+        <v>6.915526154632913E-2</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="102"/>
+      <c r="B61" s="96"/>
       <c r="C61" s="18" t="s">
         <v>14</v>
       </c>
@@ -3140,7 +3144,7 @@
       </c>
       <c r="E61" s="5">
         <f t="shared" si="43"/>
-        <v>1.5520530623843657E-6</v>
+        <v>1.8509228146292852E-6</v>
       </c>
       <c r="F61" s="5">
         <f t="shared" si="43"/>
@@ -3156,7 +3160,7 @@
       </c>
       <c r="I61" s="19">
         <f t="shared" si="35"/>
-        <v>0.1471813284743792</v>
+        <v>0.14718234378224634</v>
       </c>
       <c r="J61" s="20">
         <f t="shared" si="36"/>
@@ -3164,7 +3168,7 @@
       </c>
       <c r="K61" s="5">
         <f t="shared" si="37"/>
-        <v>4.4263056313320597E-3</v>
+        <v>4.3641828689567966E-3</v>
       </c>
       <c r="L61" s="5">
         <f t="shared" si="38"/>
@@ -3180,11 +3184,11 @@
       </c>
       <c r="O61" s="47">
         <f t="shared" si="41"/>
-        <v>0.11962743405903951</v>
+        <v>0.11936750067407202</v>
       </c>
     </row>
     <row r="62" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="102"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="18" t="s">
         <v>21</v>
       </c>
@@ -3218,7 +3222,7 @@
       </c>
       <c r="K62" s="5">
         <f t="shared" si="37"/>
-        <v>4.5936269361893179E-3</v>
+        <v>4.5457865735509173E-3</v>
       </c>
       <c r="L62" s="5">
         <f t="shared" si="38"/>
@@ -3234,11 +3238,11 @@
       </c>
       <c r="O62" s="47">
         <f t="shared" si="41"/>
-        <v>0.11132367140212754</v>
+        <v>0.11110859306017004</v>
       </c>
     </row>
     <row r="63" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="102"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="16" t="s">
         <v>15</v>
       </c>
@@ -3248,7 +3252,7 @@
       </c>
       <c r="E63" s="5">
         <f t="shared" si="45"/>
-        <v>1.8609239759884726E-15</v>
+        <v>6.3910308834823896E-12</v>
       </c>
       <c r="F63" s="5">
         <f t="shared" si="45"/>
@@ -3264,7 +3268,7 @@
       </c>
       <c r="I63" s="19">
         <f t="shared" si="35"/>
-        <v>0.18355350022176811</v>
+        <v>0.18355350023917222</v>
       </c>
       <c r="J63" s="20">
         <f t="shared" si="36"/>
@@ -3272,7 +3276,7 @@
       </c>
       <c r="K63" s="5">
         <f t="shared" si="37"/>
-        <v>4.5936210886650345E-3</v>
+        <v>4.5454456854575036E-3</v>
       </c>
       <c r="L63" s="5">
         <f t="shared" si="38"/>
@@ -3288,11 +3292,11 @@
       </c>
       <c r="O63" s="47">
         <f t="shared" si="41"/>
-        <v>0.11170596407298247</v>
+        <v>0.11149012066666231</v>
       </c>
     </row>
     <row r="64" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="102"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="16" t="s">
         <v>17</v>
       </c>
@@ -3302,7 +3306,7 @@
       </c>
       <c r="E64" s="5">
         <f t="shared" si="46"/>
-        <v>2.604126061482998E-3</v>
+        <v>2.1769723216634035E-3</v>
       </c>
       <c r="F64" s="5">
         <f t="shared" si="46"/>
@@ -3318,7 +3322,7 @@
       </c>
       <c r="I64" s="19">
         <f t="shared" si="35"/>
-        <v>0.13486583066197869</v>
+        <v>0.13327279745066475</v>
       </c>
       <c r="J64" s="20">
         <f t="shared" si="36"/>
@@ -3326,7 +3330,7 @@
       </c>
       <c r="K64" s="5">
         <f t="shared" si="37"/>
-        <v>2.8041720381037568E-4</v>
+        <v>4.3116083087185411E-4</v>
       </c>
       <c r="L64" s="5">
         <f t="shared" si="38"/>
@@ -3342,11 +3346,11 @@
       </c>
       <c r="O64" s="47">
         <f t="shared" si="41"/>
-        <v>0.13940264698468122</v>
+        <v>0.13994227957767849</v>
       </c>
     </row>
     <row r="65" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="102"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="18" t="s">
         <v>10</v>
       </c>
@@ -3356,7 +3360,7 @@
       </c>
       <c r="E65" s="5">
         <f t="shared" si="47"/>
-        <v>2.6080630491715621E-3</v>
+        <v>2.2072011551986033E-3</v>
       </c>
       <c r="F65" s="5">
         <f t="shared" si="47"/>
@@ -3372,7 +3376,7 @@
       </c>
       <c r="I65" s="19">
         <f t="shared" si="35"/>
-        <v>0.19419474670636441</v>
+        <v>0.19315987615024005</v>
       </c>
       <c r="J65" s="20">
         <f t="shared" si="36"/>
@@ -3380,7 +3384,7 @@
       </c>
       <c r="K65" s="5">
         <f t="shared" si="37"/>
-        <v>2.7912725933100816E-4</v>
+        <v>4.1785856623739845E-4</v>
       </c>
       <c r="L65" s="5">
         <f t="shared" si="38"/>
@@ -3396,11 +3400,11 @@
       </c>
       <c r="O65" s="47">
         <f t="shared" si="41"/>
-        <v>3.3166601996631545E-2</v>
+        <v>3.519594855817007E-2</v>
       </c>
     </row>
     <row r="66" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="102"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="16" t="s">
         <v>9</v>
       </c>
@@ -3410,7 +3414,7 @@
       </c>
       <c r="E66" s="5">
         <f t="shared" si="48"/>
-        <v>1.6406694349072645E-6</v>
+        <v>2.7461850073850798E-6</v>
       </c>
       <c r="F66" s="5">
         <f t="shared" si="48"/>
@@ -3426,7 +3430,7 @@
       </c>
       <c r="I66" s="19">
         <f t="shared" si="35"/>
-        <v>0.16263178444335058</v>
+        <v>0.16263518323782503</v>
       </c>
       <c r="J66" s="20">
         <f t="shared" si="36"/>
@@ -3434,7 +3438,7 @@
       </c>
       <c r="K66" s="5">
         <f t="shared" si="37"/>
-        <v>4.4216401503117371E-3</v>
+        <v>4.3250729551478646E-3</v>
       </c>
       <c r="L66" s="5">
         <f t="shared" si="38"/>
@@ -3450,11 +3454,11 @@
       </c>
       <c r="O66" s="47">
         <f t="shared" si="41"/>
-        <v>0.10275393845435099</v>
+        <v>0.10228296374624993</v>
       </c>
     </row>
     <row r="67" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="102"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="18" t="s">
         <v>22</v>
       </c>
@@ -3464,7 +3468,7 @@
       </c>
       <c r="E67" s="5">
         <f t="shared" si="49"/>
-        <v>1.4844362441504054E-6</v>
+        <v>1.3210354734714843E-6</v>
       </c>
       <c r="F67" s="5">
         <f t="shared" si="49"/>
@@ -3480,7 +3484,7 @@
       </c>
       <c r="I67" s="19">
         <f t="shared" si="35"/>
-        <v>0.11298857909005725</v>
+        <v>0.11298785600240162</v>
       </c>
       <c r="J67" s="20">
         <f t="shared" si="36"/>
@@ -3488,7 +3492,7 @@
       </c>
       <c r="K67" s="5">
         <f t="shared" si="37"/>
-        <v>4.4299575493934309E-3</v>
+        <v>4.3921218636348066E-3</v>
       </c>
       <c r="L67" s="5">
         <f t="shared" si="38"/>
@@ -3504,11 +3508,11 @@
       </c>
       <c r="O67" s="47">
         <f t="shared" si="41"/>
-        <v>0.17494542424921575</v>
+        <v>0.17483725512595838</v>
       </c>
     </row>
     <row r="68" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="102"/>
+      <c r="B68" s="96"/>
       <c r="C68" s="18" t="s">
         <v>16</v>
       </c>
@@ -3518,7 +3522,7 @@
       </c>
       <c r="E68" s="5">
         <f t="shared" si="50"/>
-        <v>4.5936269361893179E-3</v>
+        <v>4.5457865735509173E-3</v>
       </c>
       <c r="F68" s="5">
         <f t="shared" si="50"/>
@@ -3534,7 +3538,7 @@
       </c>
       <c r="I68" s="19">
         <f t="shared" si="35"/>
-        <v>7.1966525819965932E-2</v>
+        <v>7.1633375433225413E-2</v>
       </c>
       <c r="J68" s="20">
         <f t="shared" si="36"/>
@@ -3562,7 +3566,7 @@
       </c>
     </row>
     <row r="69" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="102"/>
+      <c r="B69" s="96"/>
       <c r="C69" s="16" t="s">
         <v>20</v>
       </c>
@@ -3572,7 +3576,7 @@
       </c>
       <c r="E69" s="5">
         <f t="shared" si="51"/>
-        <v>8.9695952383404186E-16</v>
+        <v>3.0696149643940937E-12</v>
       </c>
       <c r="F69" s="5">
         <f t="shared" si="51"/>
@@ -3588,7 +3592,7 @@
       </c>
       <c r="I69" s="19">
         <f t="shared" si="35"/>
-        <v>0.18143728088489083</v>
+        <v>0.18143728089334751</v>
       </c>
       <c r="J69" s="20">
         <f t="shared" si="36"/>
@@ -3596,7 +3600,7 @@
       </c>
       <c r="K69" s="5">
         <f t="shared" si="37"/>
-        <v>4.5936228764870586E-3</v>
+        <v>4.5455503240904626E-3</v>
       </c>
       <c r="L69" s="5">
         <f t="shared" si="38"/>
@@ -3612,11 +3616,11 @@
       </c>
       <c r="O69" s="47">
         <f t="shared" si="41"/>
-        <v>0.11151169021887017</v>
+        <v>0.1112959321047839</v>
       </c>
     </row>
     <row r="70" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="102"/>
+      <c r="B70" s="96"/>
       <c r="C70" s="18" t="s">
         <v>18</v>
       </c>
@@ -3626,7 +3630,7 @@
       </c>
       <c r="E70" s="5">
         <f t="shared" si="52"/>
-        <v>4.5928405804057382E-3</v>
+        <v>4.494726910530559E-3</v>
       </c>
       <c r="F70" s="5">
         <f t="shared" si="52"/>
@@ -3642,7 +3646,7 @@
       </c>
       <c r="I70" s="19">
         <f t="shared" si="35"/>
-        <v>0.14669430753001805</v>
+        <v>0.14635951008334352</v>
       </c>
       <c r="J70" s="20">
         <f t="shared" si="36"/>
@@ -3650,7 +3654,7 @@
       </c>
       <c r="K70" s="5">
         <f t="shared" si="37"/>
-        <v>3.3655777826677979E-11</v>
+        <v>1.4419037055838142E-7</v>
       </c>
       <c r="L70" s="5">
         <f t="shared" si="38"/>
@@ -3666,11 +3670,11 @@
       </c>
       <c r="O70" s="47">
         <f t="shared" si="41"/>
-        <v>0.12785057818389894</v>
+        <v>0.12785114195294478</v>
       </c>
     </row>
     <row r="71" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="102"/>
+      <c r="B71" s="96"/>
       <c r="C71" s="18" t="s">
         <v>13</v>
       </c>
@@ -3680,7 +3684,7 @@
       </c>
       <c r="E71" s="5">
         <f t="shared" si="53"/>
-        <v>2.6149491623869031E-3</v>
+        <v>2.2601167620624908E-3</v>
       </c>
       <c r="F71" s="5">
         <f t="shared" si="53"/>
@@ -3696,7 +3700,7 @@
       </c>
       <c r="I71" s="19">
         <f t="shared" si="35"/>
-        <v>0.16160143440969907</v>
+        <v>0.16049981683150874</v>
       </c>
       <c r="J71" s="20">
         <f t="shared" si="36"/>
@@ -3704,7 +3708,7 @@
       </c>
       <c r="K71" s="5">
         <f t="shared" si="37"/>
-        <v>2.7688051694363679E-4</v>
+        <v>3.952845100580954E-4</v>
       </c>
       <c r="L71" s="5">
         <f t="shared" si="38"/>
@@ -3720,11 +3724,11 @@
       </c>
       <c r="O71" s="47">
         <f t="shared" si="41"/>
-        <v>0.10942587156561313</v>
+        <v>0.1099655644327283</v>
       </c>
     </row>
     <row r="72" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="103"/>
+      <c r="B72" s="97"/>
       <c r="C72" s="16" t="s">
         <v>11</v>
       </c>
@@ -3734,7 +3738,7 @@
       </c>
       <c r="E72" s="9">
         <f t="shared" si="54"/>
-        <v>2.6051104479820454E-3</v>
+        <v>2.1845283219587273E-3</v>
       </c>
       <c r="F72" s="9">
         <f t="shared" si="54"/>
@@ -3750,7 +3754,7 @@
       </c>
       <c r="I72" s="57">
         <f t="shared" si="35"/>
-        <v>0.17375045020770249</v>
+        <v>0.17253590009431657</v>
       </c>
       <c r="J72" s="21">
         <f t="shared" si="36"/>
@@ -3758,7 +3762,7 @@
       </c>
       <c r="K72" s="9">
         <f t="shared" si="37"/>
-        <v>2.8009430171695924E-4</v>
+        <v>4.2780761173703553E-4</v>
       </c>
       <c r="L72" s="9">
         <f t="shared" si="38"/>
@@ -3774,7 +3778,7 @@
       </c>
       <c r="O72" s="28">
         <f t="shared" si="41"/>
-        <v>7.3921915874909663E-2</v>
+        <v>7.4914370828548627E-2</v>
       </c>
     </row>
     <row r="73" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -3790,7 +3794,7 @@
       </c>
     </row>
     <row r="75" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="101" t="s">
+      <c r="B75" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="16" t="s">
@@ -3798,279 +3802,279 @@
       </c>
       <c r="D75" s="58">
         <f>O58/(I58+O58)</f>
-        <v>0.35659620013612242</v>
+        <v>0.35511421685968619</v>
       </c>
       <c r="F75" s="18" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="58">
-        <v>0.66341924725910051</v>
+        <v>0.72731741942624639</v>
       </c>
       <c r="H75" s="62">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="102"/>
+      <c r="B76" s="96"/>
       <c r="C76" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D76" s="59">
         <f t="shared" ref="D76:D89" si="55">O59/(I59+O59)</f>
-        <v>0.41199400793955365</v>
-      </c>
-      <c r="F76" s="18" t="s">
+        <v>0.41151557929229865</v>
+      </c>
+      <c r="F76" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G76" s="59">
-        <v>0.64550844099151461</v>
+        <v>0.60744267392287055</v>
       </c>
       <c r="H76" s="63">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="102"/>
+      <c r="B77" s="96"/>
       <c r="C77" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="59">
         <f t="shared" si="55"/>
-        <v>0.26163743810514484</v>
+        <v>0.26066521276236471</v>
       </c>
       <c r="F77" s="61" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="59">
-        <v>0.60806048328861706</v>
+        <v>0.51220555285519953</v>
       </c>
       <c r="H77" s="63">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="102"/>
+      <c r="B78" s="96"/>
       <c r="C78" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="59">
         <f t="shared" si="55"/>
-        <v>0.44836396272425932</v>
+        <v>0.44782431187512373</v>
       </c>
       <c r="F78" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G78" s="59">
-        <v>0.46151781200773545</v>
+        <v>0.4662515515116652</v>
       </c>
       <c r="H78" s="63">
         <v>4</v>
       </c>
     </row>
     <row r="79" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="102"/>
+      <c r="B79" s="96"/>
       <c r="C79" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D79" s="59">
         <f t="shared" si="55"/>
-        <v>0.37437153760245839</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>21</v>
+        <v>0.37391869975767966</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="G79" s="59">
-        <v>0.458181614475349</v>
+        <v>0.44782431187512373</v>
       </c>
       <c r="H79" s="63">
         <v>5</v>
       </c>
     </row>
     <row r="80" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="102"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="59">
         <f t="shared" si="55"/>
-        <v>0.37833152728838199</v>
+        <v>0.37787673674953048</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G80" s="59">
-        <v>0.4411036791645046</v>
+        <v>0.41151557929229865</v>
       </c>
       <c r="H80" s="63">
         <v>6</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="102"/>
+      <c r="B81" s="96"/>
       <c r="C81" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="59">
         <f t="shared" si="55"/>
-        <v>0.50827075783850617</v>
+        <v>0.51220555285519953</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G81" s="59">
-        <v>0.42573076261049686</v>
+        <v>0.40657907462580228</v>
       </c>
       <c r="H81" s="63">
         <v>7</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="102"/>
+      <c r="B82" s="96"/>
       <c r="C82" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="59">
         <f t="shared" si="55"/>
-        <v>0.14587616666523806</v>
-      </c>
-      <c r="F82" s="17" t="s">
-        <v>8</v>
+        <v>0.15412765846070331</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="G82" s="59">
-        <v>0.39608739591929204</v>
+        <v>0.38609270414532409</v>
       </c>
       <c r="H82" s="63">
         <v>8</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="102"/>
+      <c r="B83" s="96"/>
       <c r="C83" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="59">
         <f t="shared" si="55"/>
-        <v>0.38718713777213865</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>19</v>
+        <v>0.38609270414532409</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="G83" s="59">
-        <v>0.3958492034647576</v>
+        <v>0.38019577951168226</v>
       </c>
       <c r="H83" s="63">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="102"/>
+      <c r="B84" s="96"/>
       <c r="C84" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D84" s="59">
         <f t="shared" si="55"/>
-        <v>0.60758862176857009</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>12</v>
+        <v>0.60744267392287055</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="G84" s="59">
-        <v>0.37991981829539573</v>
+        <v>0.37787673674953048</v>
       </c>
       <c r="H84" s="63">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="102"/>
+      <c r="B85" s="96"/>
       <c r="C85" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D85" s="59">
         <f t="shared" si="55"/>
-        <v>0.72639621530156395</v>
+        <v>0.72731741942624639</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G85" s="59">
-        <v>0.37655032986680131</v>
+        <v>0.37391869975767966</v>
       </c>
       <c r="H85" s="63">
         <v>11</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="102"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="59">
         <f t="shared" si="55"/>
-        <v>0.38065226786331091</v>
+        <v>0.38019577951168226</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G86" s="59">
-        <v>0.32566465067753253</v>
+        <v>0.35511421685968619</v>
       </c>
       <c r="H86" s="63">
         <v>12</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="102"/>
+      <c r="B87" s="96"/>
       <c r="C87" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D87" s="59">
         <f t="shared" si="55"/>
-        <v>0.46568187876252271</v>
-      </c>
-      <c r="F87" s="16" t="s">
-        <v>9</v>
+        <v>0.4662515515116652</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="G87" s="59">
-        <v>0.31379756165629125</v>
+        <v>0.3027451558212309</v>
       </c>
       <c r="H87" s="63">
         <v>13</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="102"/>
+      <c r="B88" s="96"/>
       <c r="C88" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="59">
         <f t="shared" si="55"/>
-        <v>0.40374482258101585</v>
+        <v>0.40657907462580228</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G88" s="59">
-        <v>0.20326091799464863</v>
+        <v>0.26066521276236471</v>
       </c>
       <c r="H88" s="63">
         <v>14</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="103"/>
+      <c r="B89" s="97"/>
       <c r="C89" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D89" s="60">
         <f t="shared" si="55"/>
-        <v>0.2984665469310076</v>
-      </c>
-      <c r="F89" s="18" t="s">
+        <v>0.3027451558212309</v>
+      </c>
+      <c r="F89" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="60">
-        <v>0.11015419186572428</v>
+        <v>0.15412765846070331</v>
       </c>
       <c r="H89" s="64">
         <v>15</v>
@@ -4081,16 +4085,16 @@
     <sortCondition descending="1" ref="G75:G89"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B20"/>
+    <mergeCell ref="D57:H57"/>
     <mergeCell ref="J57:N57"/>
     <mergeCell ref="B75:B89"/>
     <mergeCell ref="B23:B37"/>
     <mergeCell ref="B39:B53"/>
     <mergeCell ref="B58:B72"/>
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:B20"/>
-    <mergeCell ref="D57:H57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -4120,39 +4124,39 @@
   <sheetData>
     <row r="1" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="93"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -4163,7 +4167,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="102"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
@@ -4172,7 +4176,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="102"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
@@ -4181,7 +4185,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="102"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
@@ -4190,7 +4194,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="102"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="18" t="s">
         <v>21</v>
       </c>
@@ -4199,7 +4203,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="102"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="16" t="s">
         <v>15</v>
       </c>
@@ -4208,7 +4212,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="102"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="16" t="s">
         <v>17</v>
       </c>
@@ -4217,7 +4221,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="102"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="18" t="s">
         <v>10</v>
       </c>
@@ -4226,7 +4230,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="102"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="16" t="s">
         <v>9</v>
       </c>
@@ -4235,7 +4239,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="102"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
@@ -4244,7 +4248,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="102"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="18" t="s">
         <v>16</v>
       </c>
@@ -4253,7 +4257,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="102"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
@@ -4262,7 +4266,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="102"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="18" t="s">
         <v>18</v>
       </c>
@@ -4271,7 +4275,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="102"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="18" t="s">
         <v>13</v>
       </c>
@@ -4280,7 +4284,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="103"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="16" t="s">
         <v>11</v>
       </c>
@@ -4300,39 +4304,39 @@
     </row>
     <row r="22" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="2:4" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="93"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="100"/>
+      <c r="C26" s="106"/>
       <c r="D26" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -4344,7 +4348,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="102"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
@@ -4354,7 +4358,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="102"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="12" t="s">
         <v>8</v>
       </c>
@@ -4364,7 +4368,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="102"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="18" t="s">
         <v>14</v>
       </c>
@@ -4374,7 +4378,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="102"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="18" t="s">
         <v>21</v>
       </c>
@@ -4384,7 +4388,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="102"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="16" t="s">
         <v>15</v>
       </c>
@@ -4394,7 +4398,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="102"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="16" t="s">
         <v>17</v>
       </c>
@@ -4404,7 +4408,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="102"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="18" t="s">
         <v>10</v>
       </c>
@@ -4414,7 +4418,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="102"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="16" t="s">
         <v>9</v>
       </c>
@@ -4424,7 +4428,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="102"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="18" t="s">
         <v>22</v>
       </c>
@@ -4434,7 +4438,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="102"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="18" t="s">
         <v>16</v>
       </c>
@@ -4444,7 +4448,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="102"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="16" t="s">
         <v>20</v>
       </c>
@@ -4454,7 +4458,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="102"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="18" t="s">
         <v>18</v>
       </c>
@@ -4464,7 +4468,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="102"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="18" t="s">
         <v>13</v>
       </c>
@@ -4474,7 +4478,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="103"/>
+      <c r="B41" s="97"/>
       <c r="C41" s="16" t="s">
         <v>11</v>
       </c>
@@ -4493,7 +4497,7 @@
     </row>
     <row r="43" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="44" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -4505,7 +4509,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="102"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="16" t="s">
         <v>19</v>
       </c>
@@ -4515,7 +4519,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="102"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="40" t="s">
         <v>8</v>
       </c>
@@ -4525,7 +4529,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="102"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="18" t="s">
         <v>14</v>
       </c>
@@ -4535,7 +4539,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="102"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="18" t="s">
         <v>21</v>
       </c>
@@ -4545,7 +4549,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="102"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="16" t="s">
         <v>15</v>
       </c>
@@ -4555,7 +4559,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="102"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="16" t="s">
         <v>17</v>
       </c>
@@ -4565,7 +4569,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="102"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="18" t="s">
         <v>10</v>
       </c>
@@ -4575,7 +4579,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="102"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="16" t="s">
         <v>9</v>
       </c>
@@ -4585,7 +4589,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="102"/>
+      <c r="B53" s="96"/>
       <c r="C53" s="18" t="s">
         <v>22</v>
       </c>
@@ -4595,7 +4599,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="102"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="18" t="s">
         <v>16</v>
       </c>
@@ -4605,7 +4609,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="102"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="16" t="s">
         <v>20</v>
       </c>
@@ -4615,7 +4619,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="102"/>
+      <c r="B56" s="96"/>
       <c r="C56" s="18" t="s">
         <v>18</v>
       </c>
@@ -4625,7 +4629,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="102"/>
+      <c r="B57" s="96"/>
       <c r="C57" s="18" t="s">
         <v>13</v>
       </c>
@@ -4635,7 +4639,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="103"/>
+      <c r="B58" s="97"/>
       <c r="C58" s="16" t="s">
         <v>11</v>
       </c>
@@ -4647,7 +4651,7 @@
     </row>
     <row r="59" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="60" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="101" t="s">
+      <c r="B60" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="16" t="s">
@@ -4659,7 +4663,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="102"/>
+      <c r="B61" s="96"/>
       <c r="C61" s="16" t="s">
         <v>19</v>
       </c>
@@ -4669,7 +4673,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="102"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="40" t="s">
         <v>8</v>
       </c>
@@ -4679,7 +4683,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="102"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="18" t="s">
         <v>14</v>
       </c>
@@ -4689,7 +4693,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="102"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="18" t="s">
         <v>21</v>
       </c>
@@ -4699,7 +4703,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="102"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="16" t="s">
         <v>15</v>
       </c>
@@ -4709,7 +4713,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="102"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="16" t="s">
         <v>17</v>
       </c>
@@ -4719,7 +4723,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="102"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="18" t="s">
         <v>10</v>
       </c>
@@ -4729,7 +4733,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="102"/>
+      <c r="B68" s="96"/>
       <c r="C68" s="16" t="s">
         <v>9</v>
       </c>
@@ -4739,7 +4743,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="102"/>
+      <c r="B69" s="96"/>
       <c r="C69" s="18" t="s">
         <v>22</v>
       </c>
@@ -4749,7 +4753,7 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="102"/>
+      <c r="B70" s="96"/>
       <c r="C70" s="18" t="s">
         <v>16</v>
       </c>
@@ -4759,7 +4763,7 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="102"/>
+      <c r="B71" s="96"/>
       <c r="C71" s="16" t="s">
         <v>20</v>
       </c>
@@ -4769,7 +4773,7 @@
       </c>
     </row>
     <row r="72" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="102"/>
+      <c r="B72" s="96"/>
       <c r="C72" s="18" t="s">
         <v>18</v>
       </c>
@@ -4779,7 +4783,7 @@
       </c>
     </row>
     <row r="73" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="102"/>
+      <c r="B73" s="96"/>
       <c r="C73" s="18" t="s">
         <v>13</v>
       </c>
@@ -4789,7 +4793,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="103"/>
+      <c r="B74" s="97"/>
       <c r="C74" s="16" t="s">
         <v>11</v>
       </c>
@@ -4828,7 +4832,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="101" t="s">
+      <c r="B79" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="16" t="s">
@@ -4844,7 +4848,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="102"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="16" t="s">
         <v>19</v>
       </c>
@@ -4858,7 +4862,7 @@
       </c>
     </row>
     <row r="81" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="102"/>
+      <c r="B81" s="96"/>
       <c r="C81" s="40" t="s">
         <v>8</v>
       </c>
@@ -4872,7 +4876,7 @@
       </c>
     </row>
     <row r="82" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="102"/>
+      <c r="B82" s="96"/>
       <c r="C82" s="18" t="s">
         <v>14</v>
       </c>
@@ -4886,7 +4890,7 @@
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="102"/>
+      <c r="B83" s="96"/>
       <c r="C83" s="18" t="s">
         <v>21</v>
       </c>
@@ -4900,7 +4904,7 @@
       </c>
     </row>
     <row r="84" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="102"/>
+      <c r="B84" s="96"/>
       <c r="C84" s="16" t="s">
         <v>15</v>
       </c>
@@ -4914,7 +4918,7 @@
       </c>
     </row>
     <row r="85" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="102"/>
+      <c r="B85" s="96"/>
       <c r="C85" s="16" t="s">
         <v>17</v>
       </c>
@@ -4928,7 +4932,7 @@
       </c>
     </row>
     <row r="86" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="102"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="18" t="s">
         <v>10</v>
       </c>
@@ -4942,7 +4946,7 @@
       </c>
     </row>
     <row r="87" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="102"/>
+      <c r="B87" s="96"/>
       <c r="C87" s="16" t="s">
         <v>9</v>
       </c>
@@ -4956,7 +4960,7 @@
       </c>
     </row>
     <row r="88" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="102"/>
+      <c r="B88" s="96"/>
       <c r="C88" s="18" t="s">
         <v>22</v>
       </c>
@@ -4970,7 +4974,7 @@
       </c>
     </row>
     <row r="89" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="102"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="18" t="s">
         <v>16</v>
       </c>
@@ -4984,7 +4988,7 @@
       </c>
     </row>
     <row r="90" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="102"/>
+      <c r="B90" s="96"/>
       <c r="C90" s="16" t="s">
         <v>20</v>
       </c>
@@ -4998,7 +5002,7 @@
       </c>
     </row>
     <row r="91" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="102"/>
+      <c r="B91" s="96"/>
       <c r="C91" s="18" t="s">
         <v>18</v>
       </c>
@@ -5012,7 +5016,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="102"/>
+      <c r="B92" s="96"/>
       <c r="C92" s="18" t="s">
         <v>13</v>
       </c>
@@ -5026,7 +5030,7 @@
       </c>
     </row>
     <row r="93" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="103"/>
+      <c r="B93" s="97"/>
       <c r="C93" s="16" t="s">
         <v>11</v>
       </c>
@@ -5052,7 +5056,7 @@
       </c>
     </row>
     <row r="96" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="101" t="s">
+      <c r="B96" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C96" s="16" t="s">
@@ -5073,7 +5077,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="102"/>
+      <c r="B97" s="96"/>
       <c r="C97" s="16" t="s">
         <v>19</v>
       </c>
@@ -5092,7 +5096,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="102"/>
+      <c r="B98" s="96"/>
       <c r="C98" s="40" t="s">
         <v>8</v>
       </c>
@@ -5111,7 +5115,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="102"/>
+      <c r="B99" s="96"/>
       <c r="C99" s="18" t="s">
         <v>14</v>
       </c>
@@ -5130,7 +5134,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B100" s="102"/>
+      <c r="B100" s="96"/>
       <c r="C100" s="18" t="s">
         <v>21</v>
       </c>
@@ -5149,7 +5153,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="102"/>
+      <c r="B101" s="96"/>
       <c r="C101" s="16" t="s">
         <v>15</v>
       </c>
@@ -5168,7 +5172,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="102"/>
+      <c r="B102" s="96"/>
       <c r="C102" s="16" t="s">
         <v>17</v>
       </c>
@@ -5187,7 +5191,7 @@
       </c>
     </row>
     <row r="103" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="102"/>
+      <c r="B103" s="96"/>
       <c r="C103" s="18" t="s">
         <v>10</v>
       </c>
@@ -5206,7 +5210,7 @@
       </c>
     </row>
     <row r="104" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="102"/>
+      <c r="B104" s="96"/>
       <c r="C104" s="16" t="s">
         <v>9</v>
       </c>
@@ -5225,7 +5229,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B105" s="102"/>
+      <c r="B105" s="96"/>
       <c r="C105" s="18" t="s">
         <v>22</v>
       </c>
@@ -5244,7 +5248,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="102"/>
+      <c r="B106" s="96"/>
       <c r="C106" s="18" t="s">
         <v>16</v>
       </c>
@@ -5263,7 +5267,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B107" s="102"/>
+      <c r="B107" s="96"/>
       <c r="C107" s="16" t="s">
         <v>20</v>
       </c>
@@ -5282,7 +5286,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B108" s="102"/>
+      <c r="B108" s="96"/>
       <c r="C108" s="18" t="s">
         <v>18</v>
       </c>
@@ -5301,7 +5305,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B109" s="102"/>
+      <c r="B109" s="96"/>
       <c r="C109" s="18" t="s">
         <v>13</v>
       </c>
@@ -5320,7 +5324,7 @@
       </c>
     </row>
     <row r="110" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B110" s="103"/>
+      <c r="B110" s="97"/>
       <c r="C110" s="16" t="s">
         <v>11</v>
       </c>
@@ -5363,8 +5367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F909760-9695-4496-BCB2-C80ADB67480A}">
   <dimension ref="B1:H110"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="111" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView topLeftCell="A92" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
@@ -5382,172 +5386,172 @@
   <sheetData>
     <row r="1" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="93"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="78">
-        <v>170166760</v>
+        <v>316217836.2712701</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="102"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="79">
-        <v>168766760</v>
+        <v>302217836.2712701</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="102"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="80">
-        <v>101617920</v>
+        <v>217428531.13563505</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="102"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="79">
-        <v>168966760</v>
+        <v>304217836.2712701</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="102"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="79">
-        <v>101017920</v>
+        <v>211428531.13563505</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="102"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="79">
-        <v>101467920</v>
+        <v>215928531.13563505</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="102"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="79">
-        <v>459923406</v>
+        <v>654936342.81381011</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="102"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="80">
-        <v>460123406</v>
+        <v>656936342.81381011</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="102"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="80">
-        <v>169816760</v>
+        <v>312717836.2712701</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="102"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="79">
-        <v>168291760</v>
+        <v>297467836.2712701</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="102"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="79">
-        <v>665519926</v>
+        <v>950804258.22071528</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="102"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="79">
-        <v>101392920</v>
+        <v>215178531.13563505</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="102"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="79">
-        <v>660344926</v>
+        <v>899054258.22071528</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="102"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="80">
-        <v>460473406</v>
+        <v>660436342.81381011</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="103"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="81">
-        <v>459973406</v>
+        <v>655436342.81381011</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
@@ -5555,46 +5559,46 @@
       <c r="C21" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="114">
         <f>SUM(D6:D20)</f>
-        <v>4417863956</v>
+        <v>6870407193.5955639</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="2:4" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="93"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="100"/>
+      <c r="C26" s="106"/>
       <c r="D26" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -5602,147 +5606,147 @@
       </c>
       <c r="D27" s="65">
         <f>D6/$D$21</f>
-        <v>3.8517881422965215E-2</v>
+        <v>4.6026069104905622E-2</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="102"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="67">
         <f t="shared" ref="D28:D41" si="0">D7/$D$21</f>
-        <v>3.8200986196234965E-2</v>
+        <v>4.3988344177473299E-2</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="102"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="67">
         <f t="shared" si="0"/>
-        <v>2.3001595570182831E-2</v>
+        <v>3.1647109845005537E-2</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="102"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="67">
         <f t="shared" si="0"/>
-        <v>3.8246256942910714E-2</v>
+        <v>4.4279447738535059E-2</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="102"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="67">
         <f t="shared" si="0"/>
-        <v>2.2865783330155584E-2</v>
+        <v>3.077379916182026E-2</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="102"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="67">
         <f t="shared" si="0"/>
-        <v>2.2967642510176019E-2</v>
+        <v>3.1428782174209219E-2</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="102"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="67">
         <f t="shared" si="0"/>
-        <v>0.10410538001636915</v>
+        <v>9.5327150830932808E-2</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="102"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="67">
         <f t="shared" si="0"/>
-        <v>0.1041506507630449</v>
+        <v>9.5618254391994575E-2</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="102"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="67">
         <f t="shared" si="0"/>
-        <v>3.8438657616282651E-2</v>
+        <v>4.5516637873047536E-2</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="102"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D36" s="67">
         <f t="shared" si="0"/>
-        <v>3.8093468172880063E-2</v>
+        <v>4.3296973219951622E-2</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="102"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="67">
         <f t="shared" si="0"/>
-        <v>0.15064291988804737</v>
+        <v>0.13839125272036762</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="102"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D38" s="67">
         <f t="shared" si="0"/>
-        <v>2.2950665980172615E-2</v>
+        <v>3.1319618338811063E-2</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="102"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="67">
         <f t="shared" si="0"/>
-        <v>0.14947153931781235</v>
+        <v>0.13085894807789458</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="102"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="67">
         <f t="shared" si="0"/>
-        <v>0.10422987456972747</v>
+        <v>9.6127685623852654E-2</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="103"/>
+      <c r="B41" s="97"/>
       <c r="C41" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="68">
         <f t="shared" si="0"/>
-        <v>0.10411669770303809</v>
+        <v>9.539992672119825E-2</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
@@ -5750,12 +5754,12 @@
       <c r="C42" s="50"/>
       <c r="D42" s="26" cm="1">
         <f t="array" ref="D42">SQRT(SUMPRODUCT(D27:D41^2))</f>
-        <v>0.31283381629012647</v>
+        <v>0.29449225053667644</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="44" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -5763,153 +5767,153 @@
       </c>
       <c r="D44" s="65">
         <f t="shared" ref="D44:D58" si="1">D27/D$42</f>
-        <v>0.12312569619149866</v>
+        <v>0.15628957645244887</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="102"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="66">
         <f t="shared" si="1"/>
-        <v>0.12211271354630931</v>
+        <v>0.14937012467156563</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="102"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="66">
         <f t="shared" si="1"/>
-        <v>7.3526563857312752E-2</v>
+        <v>0.10746330264152118</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="102"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="66">
         <f t="shared" si="1"/>
-        <v>0.12225742535276493</v>
+        <v>0.15035861778312037</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="102"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="66">
         <f t="shared" si="1"/>
-        <v>7.3092428437945903E-2</v>
+        <v>0.10449782330685693</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="102"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="66">
         <f t="shared" si="1"/>
-        <v>7.3418030002471046E-2</v>
+        <v>0.10672193280785512</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="102"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="66">
         <f t="shared" si="1"/>
-        <v>0.33278173456740484</v>
+        <v>0.32370003168915523</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="102"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="66">
         <f t="shared" si="1"/>
-        <v>0.33292644637386043</v>
+        <v>0.32468852480071003</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="102"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="66">
         <f t="shared" si="1"/>
-        <v>0.12287245053020132</v>
+        <v>0.15455971350722805</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="102"/>
+      <c r="B53" s="96"/>
       <c r="C53" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="66">
         <f t="shared" si="1"/>
-        <v>0.12176902300597722</v>
+        <v>0.1470224535316231</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="102"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="66">
         <f t="shared" si="1"/>
-        <v>0.48154295361834865</v>
+        <v>0.46993172984404968</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="102"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D55" s="66">
         <f t="shared" si="1"/>
-        <v>7.3363763075050187E-2</v>
+        <v>0.1063512478910221</v>
       </c>
     </row>
     <row r="56" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="102"/>
+      <c r="B56" s="96"/>
       <c r="C56" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="66">
         <f t="shared" si="1"/>
-        <v>0.47779853562630947</v>
+        <v>0.44435447058257055</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="102"/>
+      <c r="B57" s="96"/>
       <c r="C57" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="66">
         <f t="shared" si="1"/>
-        <v>0.33317969203515785</v>
+        <v>0.32641838774593085</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="103"/>
+      <c r="B58" s="97"/>
       <c r="C58" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D58" s="70">
         <f t="shared" si="1"/>
-        <v>0.33281791251901877</v>
+        <v>0.32394715496704396</v>
       </c>
       <c r="E58" s="30"/>
     </row>
     <row r="59" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="60" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="101" t="s">
+      <c r="B60" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="16" t="s">
@@ -5917,147 +5921,147 @@
       </c>
       <c r="D60" s="65">
         <f t="shared" ref="D60:D74" si="2">D44*D$26</f>
-        <v>0.12312569619149866</v>
+        <v>0.15628957645244887</v>
       </c>
     </row>
     <row r="61" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="102"/>
+      <c r="B61" s="96"/>
       <c r="C61" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D61" s="66">
         <f t="shared" si="2"/>
-        <v>0.12211271354630931</v>
+        <v>0.14937012467156563</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="102"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D62" s="66">
         <f t="shared" si="2"/>
-        <v>7.3526563857312752E-2</v>
+        <v>0.10746330264152118</v>
       </c>
     </row>
     <row r="63" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="102"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="66">
         <f t="shared" si="2"/>
-        <v>0.12225742535276493</v>
+        <v>0.15035861778312037</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="102"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="66">
         <f t="shared" si="2"/>
-        <v>7.3092428437945903E-2</v>
+        <v>0.10449782330685693</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="102"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="66">
         <f t="shared" si="2"/>
-        <v>7.3418030002471046E-2</v>
+        <v>0.10672193280785512</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="102"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="66">
         <f t="shared" si="2"/>
-        <v>0.33278173456740484</v>
+        <v>0.32370003168915523</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="102"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D67" s="66">
         <f t="shared" si="2"/>
-        <v>0.33292644637386043</v>
+        <v>0.32468852480071003</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="102"/>
+      <c r="B68" s="96"/>
       <c r="C68" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="66">
         <f t="shared" si="2"/>
-        <v>0.12287245053020132</v>
+        <v>0.15455971350722805</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="102"/>
+      <c r="B69" s="96"/>
       <c r="C69" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D69" s="66">
         <f t="shared" si="2"/>
-        <v>0.12176902300597722</v>
+        <v>0.1470224535316231</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="102"/>
+      <c r="B70" s="96"/>
       <c r="C70" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D70" s="66">
         <f t="shared" si="2"/>
-        <v>0.48154295361834865</v>
+        <v>0.46993172984404968</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="102"/>
+      <c r="B71" s="96"/>
       <c r="C71" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D71" s="66">
         <f t="shared" si="2"/>
-        <v>7.3363763075050187E-2</v>
+        <v>0.1063512478910221</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="102"/>
+      <c r="B72" s="96"/>
       <c r="C72" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D72" s="66">
         <f t="shared" si="2"/>
-        <v>0.47779853562630947</v>
+        <v>0.44435447058257055</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="102"/>
+      <c r="B73" s="96"/>
       <c r="C73" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="66">
         <f t="shared" si="2"/>
-        <v>0.33317969203515785</v>
+        <v>0.32641838774593085</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="103"/>
+      <c r="B74" s="97"/>
       <c r="C74" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="71">
         <f t="shared" si="2"/>
-        <v>0.33281791251901877</v>
+        <v>0.32394715496704396</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6066,7 +6070,7 @@
       </c>
       <c r="D75" s="58">
         <f>MIN(D60:D74)</f>
-        <v>7.3092428437945903E-2</v>
+        <v>0.10449782330685693</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6075,7 +6079,7 @@
       </c>
       <c r="D76" s="60">
         <f>MAX(D60:D74)</f>
-        <v>0.48154295361834865</v>
+        <v>0.46993172984404968</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
@@ -6090,7 +6094,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="101" t="s">
+      <c r="B79" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="16" t="s">
@@ -6098,57 +6102,57 @@
       </c>
       <c r="D79" s="13">
         <f t="shared" ref="D79:D93" si="3">(D60-D$75)^2</f>
-        <v>2.5033278820987019E-3</v>
+        <v>2.6823856938939321E-3</v>
       </c>
       <c r="E79" s="65">
         <f t="shared" ref="E79:E93" si="4">(D60-D$76)^2</f>
-        <v>0.12846293042138485</v>
+        <v>9.8371400384120469E-2</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="102"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D80" s="20">
         <f t="shared" si="3"/>
-        <v>2.4029883521052356E-3</v>
+        <v>2.0135234297652379E-3</v>
       </c>
       <c r="E80" s="66">
         <f t="shared" si="4"/>
-        <v>0.12919009747824384</v>
+        <v>0.10275974271075955</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="102"/>
+      <c r="B81" s="96"/>
       <c r="C81" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D81" s="20">
         <f t="shared" si="3"/>
-        <v>1.8847356234882982E-7</v>
+        <v>8.794067684320709E-6</v>
       </c>
       <c r="E81" s="66">
         <f t="shared" si="4"/>
-        <v>0.16647737431362955</v>
+        <v>0.13138336071867468</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="102"/>
+      <c r="B82" s="96"/>
       <c r="C82" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="20">
         <f t="shared" si="3"/>
-        <v>2.4171969216341647E-3</v>
+        <v>2.1032124699940755E-3</v>
       </c>
       <c r="E82" s="66">
         <f t="shared" si="4"/>
-        <v>0.12908609082107952</v>
+        <v>0.10212697395230728</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="102"/>
+      <c r="B83" s="96"/>
       <c r="C83" s="18" t="s">
         <v>21</v>
       </c>
@@ -6158,87 +6162,87 @@
       </c>
       <c r="E83" s="66">
         <f t="shared" si="4"/>
-        <v>0.16683183152014683</v>
+        <v>0.13354194004703374</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="102"/>
+      <c r="B84" s="96"/>
       <c r="C84" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="20">
         <f t="shared" si="3"/>
-        <v>1.0601637882122129E-7</v>
+        <v>4.9466630724304142E-6</v>
       </c>
       <c r="E84" s="66">
         <f t="shared" si="4"/>
-        <v>0.16656595327646592</v>
+        <v>0.13192135666307364</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="102"/>
+      <c r="B85" s="96"/>
       <c r="C85" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="20">
         <f t="shared" si="3"/>
-        <v>6.7438535717999848E-2</v>
+        <v>4.8049608159676536E-2</v>
       </c>
       <c r="E85" s="66">
         <f t="shared" si="4"/>
-        <v>2.2129900293522888E-2</v>
+        <v>2.1383709545264161E-2</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="102"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="20">
         <f t="shared" si="3"/>
-        <v>6.7513716876721155E-2</v>
+        <v>4.848394502435513E-2</v>
       </c>
       <c r="E86" s="66">
         <f t="shared" si="4"/>
-        <v>2.2086866225551019E-2</v>
+        <v>2.1095588611261606E-2</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="102"/>
+      <c r="B87" s="96"/>
       <c r="C87" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="20">
         <f t="shared" si="3"/>
-        <v>2.4780505995054374E-3</v>
+        <v>2.506192850434014E-3</v>
       </c>
       <c r="E87" s="66">
         <f t="shared" si="4"/>
-        <v>0.12864452978550467</v>
+        <v>9.9459508688352502E-2</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="102"/>
+      <c r="B88" s="96"/>
       <c r="C88" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="20">
         <f t="shared" si="3"/>
-        <v>2.369410858740496E-3</v>
+        <v>1.8083441757530967E-3</v>
       </c>
       <c r="E88" s="66">
         <f t="shared" si="4"/>
-        <v>0.12943728114827543</v>
+        <v>0.10427040072861507</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="102"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D89" s="20">
         <f t="shared" si="3"/>
-        <v>0.16683183152014683</v>
+        <v>0.13354194004703374</v>
       </c>
       <c r="E89" s="66">
         <f t="shared" si="4"/>
@@ -6246,59 +6250,59 @@
       </c>
     </row>
     <row r="90" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="102"/>
+      <c r="B90" s="96"/>
       <c r="C90" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D90" s="20">
         <f t="shared" si="3"/>
-        <v>7.3622485292513532E-8</v>
+        <v>3.4351826891878223E-6</v>
       </c>
       <c r="E90" s="66">
         <f t="shared" si="4"/>
-        <v>0.16661025159258233</v>
+        <v>0.13219076685719583</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="102"/>
+      <c r="B91" s="96"/>
       <c r="C91" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D91" s="20">
         <f t="shared" si="3"/>
-        <v>0.16378703319555923</v>
+        <v>0.11550254069748883</v>
       </c>
       <c r="E91" s="66">
         <f t="shared" si="4"/>
-        <v>1.4020666099106671E-5</v>
+        <v>6.5419619132892016E-4</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="102"/>
+      <c r="B92" s="96"/>
       <c r="C92" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="20">
         <f t="shared" si="3"/>
-        <v>6.7645384685485616E-2</v>
+        <v>4.9248736920957166E-2</v>
       </c>
       <c r="E92" s="66">
         <f t="shared" si="4"/>
-        <v>2.2011657387602298E-2</v>
+        <v>2.0596079360171687E-2</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="103"/>
+      <c r="B93" s="97"/>
       <c r="C93" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="21">
         <f t="shared" si="3"/>
-        <v>6.7457327081147642E-2</v>
+        <v>4.8158009166102772E-2</v>
       </c>
       <c r="E93" s="70">
         <f t="shared" si="4"/>
-        <v>2.2119137849997361E-2</v>
+        <v>2.131149610202009E-2</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -6315,7 +6319,7 @@
       </c>
     </row>
     <row r="96" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="101" t="s">
+      <c r="B96" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C96" s="16" t="s">
@@ -6323,7 +6327,7 @@
       </c>
       <c r="D96" s="58">
         <f>E79/(D79+E79)</f>
-        <v>0.98088570358101068</v>
+        <v>0.9734558614971327</v>
       </c>
       <c r="F96" s="15" t="s">
         <v>21</v>
@@ -6336,64 +6340,64 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="102"/>
+      <c r="B97" s="96"/>
       <c r="C97" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="58">
         <f t="shared" ref="D97:D110" si="5">E80/(D80+E80)</f>
-        <v>0.9817392506837086</v>
-      </c>
-      <c r="F97" s="16" t="s">
+        <v>0.98078208779838316</v>
+      </c>
+      <c r="F97" s="18" t="s">
         <v>20</v>
       </c>
       <c r="G97" s="58">
-        <v>0.99999955811570973</v>
+        <v>0.99997401411986164</v>
       </c>
       <c r="H97" s="62">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="102"/>
+      <c r="B98" s="96"/>
       <c r="C98" s="40" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="58">
         <f t="shared" si="5"/>
-        <v>0.99999886787408954</v>
+        <v>0.99993307007028986</v>
       </c>
       <c r="F98" s="16" t="s">
         <v>15</v>
       </c>
       <c r="G98" s="58">
-        <v>0.99999936351751817</v>
+        <v>0.99996250434562539</v>
       </c>
       <c r="H98" s="62">
         <v>3</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="102"/>
+      <c r="B99" s="96"/>
       <c r="C99" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="58">
         <f t="shared" si="5"/>
-        <v>0.98161873392577514</v>
-      </c>
-      <c r="F99" s="40" t="s">
+        <v>0.97982146494996514</v>
+      </c>
+      <c r="F99" s="61" t="s">
         <v>8</v>
       </c>
       <c r="G99" s="58">
-        <v>0.99999886787408954</v>
+        <v>0.99993307007028986</v>
       </c>
       <c r="H99" s="62">
         <v>4</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B100" s="102"/>
+      <c r="B100" s="96"/>
       <c r="C100" s="18" t="s">
         <v>21</v>
       </c>
@@ -6401,113 +6405,113 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F100" s="18" t="s">
+      <c r="F100" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G100" s="58">
-        <v>0.98202359210551793</v>
+        <v>0.98295281323903905</v>
       </c>
       <c r="H100" s="62">
         <v>5</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="102"/>
+      <c r="B101" s="96"/>
       <c r="C101" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="58">
         <f t="shared" si="5"/>
-        <v>0.99999936351751817</v>
+        <v>0.99996250434562539</v>
       </c>
       <c r="F101" s="16" t="s">
         <v>19</v>
       </c>
       <c r="G101" s="58">
-        <v>0.9817392506837086</v>
+        <v>0.98078208779838316</v>
       </c>
       <c r="H101" s="62">
         <v>6</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="102"/>
+      <c r="B102" s="96"/>
       <c r="C102" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D102" s="58">
         <f t="shared" si="5"/>
-        <v>0.24707253223307302</v>
-      </c>
-      <c r="F102" s="18" t="s">
+        <v>0.30797476272320701</v>
+      </c>
+      <c r="F102" s="17" t="s">
         <v>14</v>
       </c>
       <c r="G102" s="58">
-        <v>0.98161873392577514</v>
+        <v>0.97982146494996514</v>
       </c>
       <c r="H102" s="62">
         <v>7</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="102"/>
+      <c r="B103" s="96"/>
       <c r="C103" s="18" t="s">
         <v>10</v>
       </c>
       <c r="D103" s="58">
         <f t="shared" si="5"/>
-        <v>0.24650359920471232</v>
+        <v>0.30318669167485029</v>
       </c>
       <c r="F103" s="16" t="s">
         <v>9</v>
       </c>
       <c r="G103" s="58">
-        <v>0.98110126728570146</v>
+        <v>0.97542121701108786</v>
       </c>
       <c r="H103" s="62">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="102"/>
+      <c r="B104" s="96"/>
       <c r="C104" s="16" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="58">
         <f t="shared" si="5"/>
-        <v>0.98110126728570146</v>
-      </c>
-      <c r="F104" s="16" t="s">
+        <v>0.97542121701108786</v>
+      </c>
+      <c r="F104" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G104" s="58">
-        <v>0.98088570358101068</v>
+        <v>0.9734558614971327</v>
       </c>
       <c r="H104" s="62">
         <v>9</v>
       </c>
     </row>
     <row r="105" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B105" s="102"/>
+      <c r="B105" s="96"/>
       <c r="C105" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D105" s="58">
         <f t="shared" si="5"/>
-        <v>0.98202359210551793</v>
-      </c>
-      <c r="F105" s="16" t="s">
+        <v>0.98295281323903905</v>
+      </c>
+      <c r="F105" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G105" s="58">
-        <v>0.24707253223307302</v>
+        <v>0.30797476272320701</v>
       </c>
       <c r="H105" s="62">
         <v>10</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="102"/>
+      <c r="B106" s="96"/>
       <c r="C106" s="18" t="s">
         <v>16</v>
       </c>
@@ -6515,83 +6519,83 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F106" s="16" t="s">
+      <c r="F106" s="18" t="s">
         <v>11</v>
       </c>
       <c r="G106" s="58">
-        <v>0.24693023850628334</v>
+        <v>0.30677483623593899</v>
       </c>
       <c r="H106" s="62">
         <v>11</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B107" s="102"/>
+      <c r="B107" s="96"/>
       <c r="C107" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D107" s="58">
         <f t="shared" si="5"/>
-        <v>0.99999955811570973</v>
-      </c>
-      <c r="F107" s="18" t="s">
+        <v>0.99997401411986164</v>
+      </c>
+      <c r="F107" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="58">
-        <v>0.24650359920471232</v>
+        <v>0.30318669167485029</v>
       </c>
       <c r="H107" s="62">
         <v>12</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B108" s="102"/>
+      <c r="B108" s="96"/>
       <c r="C108" s="18" t="s">
         <v>18</v>
       </c>
       <c r="D108" s="58">
         <f t="shared" si="5"/>
-        <v>8.5595701422947647E-5</v>
+        <v>5.6320124759969793E-3</v>
       </c>
       <c r="F108" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G108" s="58">
-        <v>0.24550952026343362</v>
+        <v>0.29488343526127192</v>
       </c>
       <c r="H108" s="62">
         <v>13</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B109" s="102"/>
+      <c r="B109" s="96"/>
       <c r="C109" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="58">
         <f t="shared" si="5"/>
-        <v>0.24550952026343362</v>
+        <v>0.29488343526127192</v>
       </c>
       <c r="F109" s="18" t="s">
         <v>18</v>
       </c>
       <c r="G109" s="58">
-        <v>8.5595701422947647E-5</v>
+        <v>5.6320124759969793E-3</v>
       </c>
       <c r="H109" s="62">
         <v>14</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B110" s="103"/>
+      <c r="B110" s="97"/>
       <c r="C110" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D110" s="72">
         <f t="shared" si="5"/>
-        <v>0.24693023850628334</v>
-      </c>
-      <c r="F110" s="18" t="s">
+        <v>0.30677483623593899</v>
+      </c>
+      <c r="F110" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G110" s="72">
@@ -6652,21 +6656,21 @@
   <sheetData>
     <row r="1" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="96" t="s">
+      <c r="C2" s="99"/>
+      <c r="D2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="110" t="s">
         <v>3</v>
       </c>
@@ -6676,9 +6680,9 @@
       <c r="H3" s="112"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="92" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="98" t="s">
         <v>38</v>
       </c>
       <c r="E4" s="110" t="s">
@@ -6689,8 +6693,8 @@
       <c r="H4" s="112"/>
     </row>
     <row r="5" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="94"/>
-      <c r="C5" s="95"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="113"/>
       <c r="E5" s="4" t="s">
         <v>40</v>
@@ -6706,10 +6710,10 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="100"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="11">
         <v>0.5</v>
       </c>
@@ -6734,7 +6738,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -6757,7 +6761,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="102"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
@@ -6778,7 +6782,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="102"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="12" t="s">
         <v>8</v>
       </c>
@@ -6799,7 +6803,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="102"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="18" t="s">
         <v>14</v>
       </c>
@@ -6820,7 +6824,7 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="102"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="18" t="s">
         <v>21</v>
       </c>
@@ -6841,7 +6845,7 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="102"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
@@ -6863,7 +6867,7 @@
       <c r="L12" s="29"/>
     </row>
     <row r="13" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="102"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="16" t="s">
         <v>17</v>
       </c>
@@ -6884,7 +6888,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="102"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="18" t="s">
         <v>10</v>
       </c>
@@ -6905,7 +6909,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="102"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="16" t="s">
         <v>9</v>
       </c>
@@ -6927,7 +6931,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:12" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="102"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="18" t="s">
         <v>22</v>
       </c>
@@ -6949,7 +6953,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="102"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="18" t="s">
         <v>16</v>
       </c>
@@ -6971,7 +6975,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="102"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="16" t="s">
         <v>20</v>
       </c>
@@ -6993,7 +6997,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="102"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="18" t="s">
         <v>18</v>
       </c>
@@ -7015,7 +7019,7 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="102"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="18" t="s">
         <v>13</v>
       </c>
@@ -7037,7 +7041,7 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="103"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -7094,7 +7098,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="101" t="s">
+      <c r="B24" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -7123,7 +7127,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="102"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="16" t="s">
         <v>19</v>
       </c>
@@ -7150,7 +7154,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="102"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="40" t="s">
         <v>8</v>
       </c>
@@ -7177,7 +7181,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="102"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="18" t="s">
         <v>14</v>
       </c>
@@ -7204,7 +7208,7 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="102"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="18" t="s">
         <v>21</v>
       </c>
@@ -7231,7 +7235,7 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="102"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="16" t="s">
         <v>15</v>
       </c>
@@ -7258,7 +7262,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="102"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="16" t="s">
         <v>17</v>
       </c>
@@ -7285,7 +7289,7 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="102"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="18" t="s">
         <v>10</v>
       </c>
@@ -7312,7 +7316,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="102"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="16" t="s">
         <v>9</v>
       </c>
@@ -7339,7 +7343,7 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="102"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="18" t="s">
         <v>22</v>
       </c>
@@ -7366,7 +7370,7 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="102"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="18" t="s">
         <v>16</v>
       </c>
@@ -7393,7 +7397,7 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="102"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="16" t="s">
         <v>20</v>
       </c>
@@ -7420,7 +7424,7 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="102"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="18" t="s">
         <v>18</v>
       </c>
@@ -7447,7 +7451,7 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="102"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="18" t="s">
         <v>13</v>
       </c>
@@ -7474,7 +7478,7 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="103"/>
+      <c r="B38" s="97"/>
       <c r="C38" s="16" t="s">
         <v>11</v>
       </c>
@@ -7527,7 +7531,7 @@
     </row>
     <row r="40" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="41" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="101" t="s">
+      <c r="B41" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="16" t="s">
@@ -7555,7 +7559,7 @@
       </c>
     </row>
     <row r="42" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B42" s="102"/>
+      <c r="B42" s="96"/>
       <c r="C42" s="16" t="s">
         <v>19</v>
       </c>
@@ -7581,7 +7585,7 @@
       </c>
     </row>
     <row r="43" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="102"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="40" t="s">
         <v>8</v>
       </c>
@@ -7607,7 +7611,7 @@
       </c>
     </row>
     <row r="44" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="102"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="18" t="s">
         <v>14</v>
       </c>
@@ -7633,7 +7637,7 @@
       </c>
     </row>
     <row r="45" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="102"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="18" t="s">
         <v>21</v>
       </c>
@@ -7659,7 +7663,7 @@
       </c>
     </row>
     <row r="46" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="102"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="16" t="s">
         <v>15</v>
       </c>
@@ -7685,7 +7689,7 @@
       </c>
     </row>
     <row r="47" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="102"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="16" t="s">
         <v>17</v>
       </c>
@@ -7711,7 +7715,7 @@
       </c>
     </row>
     <row r="48" spans="2:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="102"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="18" t="s">
         <v>10</v>
       </c>
@@ -7737,7 +7741,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="102"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="16" t="s">
         <v>9</v>
       </c>
@@ -7763,7 +7767,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="102"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="18" t="s">
         <v>22</v>
       </c>
@@ -7789,7 +7793,7 @@
       </c>
     </row>
     <row r="51" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="102"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="18" t="s">
         <v>16</v>
       </c>
@@ -7815,7 +7819,7 @@
       </c>
     </row>
     <row r="52" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="102"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="16" t="s">
         <v>20</v>
       </c>
@@ -7841,7 +7845,7 @@
       </c>
     </row>
     <row r="53" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="102"/>
+      <c r="B53" s="96"/>
       <c r="C53" s="18" t="s">
         <v>18</v>
       </c>
@@ -7867,7 +7871,7 @@
       </c>
     </row>
     <row r="54" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="102"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="18" t="s">
         <v>13</v>
       </c>
@@ -7893,7 +7897,7 @@
       </c>
     </row>
     <row r="55" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="103"/>
+      <c r="B55" s="97"/>
       <c r="C55" s="16" t="s">
         <v>11</v>
       </c>
@@ -7920,7 +7924,7 @@
     </row>
     <row r="56" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="57" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="101" t="s">
+      <c r="B57" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="16" t="s">
@@ -7948,7 +7952,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="102"/>
+      <c r="B58" s="96"/>
       <c r="C58" s="16" t="s">
         <v>19</v>
       </c>
@@ -7974,7 +7978,7 @@
       </c>
     </row>
     <row r="59" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="102"/>
+      <c r="B59" s="96"/>
       <c r="C59" s="40" t="s">
         <v>8</v>
       </c>
@@ -8000,7 +8004,7 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="102"/>
+      <c r="B60" s="96"/>
       <c r="C60" s="18" t="s">
         <v>14</v>
       </c>
@@ -8026,7 +8030,7 @@
       </c>
     </row>
     <row r="61" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="102"/>
+      <c r="B61" s="96"/>
       <c r="C61" s="18" t="s">
         <v>21</v>
       </c>
@@ -8052,7 +8056,7 @@
       </c>
     </row>
     <row r="62" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="102"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="16" t="s">
         <v>15</v>
       </c>
@@ -8078,7 +8082,7 @@
       </c>
     </row>
     <row r="63" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="102"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="16" t="s">
         <v>17</v>
       </c>
@@ -8104,7 +8108,7 @@
       </c>
     </row>
     <row r="64" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="102"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="18" t="s">
         <v>10</v>
       </c>
@@ -8130,7 +8134,7 @@
       </c>
     </row>
     <row r="65" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="102"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="16" t="s">
         <v>9</v>
       </c>
@@ -8156,7 +8160,7 @@
       </c>
     </row>
     <row r="66" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="102"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="18" t="s">
         <v>22</v>
       </c>
@@ -8182,7 +8186,7 @@
       </c>
     </row>
     <row r="67" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="102"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="18" t="s">
         <v>16</v>
       </c>
@@ -8208,7 +8212,7 @@
       </c>
     </row>
     <row r="68" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="102"/>
+      <c r="B68" s="96"/>
       <c r="C68" s="16" t="s">
         <v>20</v>
       </c>
@@ -8234,7 +8238,7 @@
       </c>
     </row>
     <row r="69" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="102"/>
+      <c r="B69" s="96"/>
       <c r="C69" s="18" t="s">
         <v>18</v>
       </c>
@@ -8260,7 +8264,7 @@
       </c>
     </row>
     <row r="70" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="102"/>
+      <c r="B70" s="96"/>
       <c r="C70" s="18" t="s">
         <v>13</v>
       </c>
@@ -8286,7 +8290,7 @@
       </c>
     </row>
     <row r="71" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="103"/>
+      <c r="B71" s="97"/>
       <c r="C71" s="16" t="s">
         <v>11</v>
       </c>
@@ -8369,29 +8373,29 @@
       <c r="H74" s="30"/>
     </row>
     <row r="75" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D75" s="104" t="s">
+      <c r="D75" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="105"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="105"/>
-      <c r="H75" s="106"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="108"/>
+      <c r="G75" s="108"/>
+      <c r="H75" s="109"/>
       <c r="I75" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="J75" s="107" t="s">
+      <c r="J75" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="K75" s="108"/>
-      <c r="L75" s="108"/>
-      <c r="M75" s="108"/>
-      <c r="N75" s="109"/>
+      <c r="K75" s="93"/>
+      <c r="L75" s="93"/>
+      <c r="M75" s="93"/>
+      <c r="N75" s="94"/>
       <c r="O75" s="51" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="76" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B76" s="101" t="s">
+      <c r="B76" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C76" s="16" t="s">
@@ -8447,7 +8451,7 @@
       </c>
     </row>
     <row r="77" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="102"/>
+      <c r="B77" s="96"/>
       <c r="C77" s="16" t="s">
         <v>19</v>
       </c>
@@ -8501,7 +8505,7 @@
       </c>
     </row>
     <row r="78" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B78" s="102"/>
+      <c r="B78" s="96"/>
       <c r="C78" s="40" t="s">
         <v>8</v>
       </c>
@@ -8555,7 +8559,7 @@
       </c>
     </row>
     <row r="79" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="102"/>
+      <c r="B79" s="96"/>
       <c r="C79" s="18" t="s">
         <v>14</v>
       </c>
@@ -8609,7 +8613,7 @@
       </c>
     </row>
     <row r="80" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="102"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="18" t="s">
         <v>21</v>
       </c>
@@ -8663,7 +8667,7 @@
       </c>
     </row>
     <row r="81" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="102"/>
+      <c r="B81" s="96"/>
       <c r="C81" s="16" t="s">
         <v>15</v>
       </c>
@@ -8717,7 +8721,7 @@
       </c>
     </row>
     <row r="82" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="102"/>
+      <c r="B82" s="96"/>
       <c r="C82" s="16" t="s">
         <v>17</v>
       </c>
@@ -8771,7 +8775,7 @@
       </c>
     </row>
     <row r="83" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="102"/>
+      <c r="B83" s="96"/>
       <c r="C83" s="18" t="s">
         <v>10</v>
       </c>
@@ -8825,7 +8829,7 @@
       </c>
     </row>
     <row r="84" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="102"/>
+      <c r="B84" s="96"/>
       <c r="C84" s="16" t="s">
         <v>9</v>
       </c>
@@ -8879,7 +8883,7 @@
       </c>
     </row>
     <row r="85" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="102"/>
+      <c r="B85" s="96"/>
       <c r="C85" s="18" t="s">
         <v>22</v>
       </c>
@@ -8933,7 +8937,7 @@
       </c>
     </row>
     <row r="86" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="102"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="18" t="s">
         <v>16</v>
       </c>
@@ -8987,7 +8991,7 @@
       </c>
     </row>
     <row r="87" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="102"/>
+      <c r="B87" s="96"/>
       <c r="C87" s="16" t="s">
         <v>20</v>
       </c>
@@ -9041,7 +9045,7 @@
       </c>
     </row>
     <row r="88" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="102"/>
+      <c r="B88" s="96"/>
       <c r="C88" s="18" t="s">
         <v>18</v>
       </c>
@@ -9095,7 +9099,7 @@
       </c>
     </row>
     <row r="89" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="102"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="18" t="s">
         <v>13</v>
       </c>
@@ -9149,7 +9153,7 @@
       </c>
     </row>
     <row r="90" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="103"/>
+      <c r="B90" s="97"/>
       <c r="C90" s="16" t="s">
         <v>11</v>
       </c>
@@ -9215,7 +9219,7 @@
       </c>
     </row>
     <row r="93" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="101" t="s">
+      <c r="B93" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C93" s="16" t="s">
@@ -9236,7 +9240,7 @@
       </c>
     </row>
     <row r="94" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B94" s="102"/>
+      <c r="B94" s="96"/>
       <c r="C94" s="16" t="s">
         <v>19</v>
       </c>
@@ -9255,7 +9259,7 @@
       </c>
     </row>
     <row r="95" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B95" s="102"/>
+      <c r="B95" s="96"/>
       <c r="C95" s="40" t="s">
         <v>8</v>
       </c>
@@ -9274,7 +9278,7 @@
       </c>
     </row>
     <row r="96" spans="2:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="102"/>
+      <c r="B96" s="96"/>
       <c r="C96" s="18" t="s">
         <v>14</v>
       </c>
@@ -9293,7 +9297,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="102"/>
+      <c r="B97" s="96"/>
       <c r="C97" s="18" t="s">
         <v>21</v>
       </c>
@@ -9312,7 +9316,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="102"/>
+      <c r="B98" s="96"/>
       <c r="C98" s="16" t="s">
         <v>15</v>
       </c>
@@ -9331,7 +9335,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="102"/>
+      <c r="B99" s="96"/>
       <c r="C99" s="16" t="s">
         <v>17</v>
       </c>
@@ -9350,7 +9354,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B100" s="102"/>
+      <c r="B100" s="96"/>
       <c r="C100" s="18" t="s">
         <v>10</v>
       </c>
@@ -9369,7 +9373,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="102"/>
+      <c r="B101" s="96"/>
       <c r="C101" s="16" t="s">
         <v>9</v>
       </c>
@@ -9388,7 +9392,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="102"/>
+      <c r="B102" s="96"/>
       <c r="C102" s="18" t="s">
         <v>22</v>
       </c>
@@ -9407,7 +9411,7 @@
       </c>
     </row>
     <row r="103" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="102"/>
+      <c r="B103" s="96"/>
       <c r="C103" s="18" t="s">
         <v>16</v>
       </c>
@@ -9426,7 +9430,7 @@
       </c>
     </row>
     <row r="104" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="102"/>
+      <c r="B104" s="96"/>
       <c r="C104" s="16" t="s">
         <v>20</v>
       </c>
@@ -9445,7 +9449,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B105" s="102"/>
+      <c r="B105" s="96"/>
       <c r="C105" s="18" t="s">
         <v>18</v>
       </c>
@@ -9464,7 +9468,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="102"/>
+      <c r="B106" s="96"/>
       <c r="C106" s="18" t="s">
         <v>13</v>
       </c>
@@ -9483,7 +9487,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B107" s="103"/>
+      <c r="B107" s="97"/>
       <c r="C107" s="16" t="s">
         <v>11</v>
       </c>
@@ -9506,6 +9510,11 @@
     <sortCondition descending="1" ref="G93:G107"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="D75:H75"/>
+    <mergeCell ref="J75:N75"/>
+    <mergeCell ref="B76:B90"/>
+    <mergeCell ref="B93:B107"/>
+    <mergeCell ref="B24:B38"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:B21"/>
     <mergeCell ref="B41:B55"/>
@@ -9515,11 +9524,6 @@
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="J75:N75"/>
-    <mergeCell ref="B76:B90"/>
-    <mergeCell ref="B93:B107"/>
-    <mergeCell ref="B24:B38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -9549,39 +9553,39 @@
   <sheetData>
     <row r="1" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="93"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -9592,7 +9596,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="102"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
@@ -9601,7 +9605,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="102"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
@@ -9610,7 +9614,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="102"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
@@ -9619,7 +9623,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="102"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="18" t="s">
         <v>21</v>
       </c>
@@ -9628,7 +9632,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="102"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="16" t="s">
         <v>15</v>
       </c>
@@ -9637,7 +9641,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="102"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="16" t="s">
         <v>17</v>
       </c>
@@ -9646,7 +9650,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="102"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="18" t="s">
         <v>10</v>
       </c>
@@ -9655,7 +9659,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="102"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="16" t="s">
         <v>9</v>
       </c>
@@ -9664,7 +9668,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="102"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
@@ -9673,7 +9677,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="102"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="18" t="s">
         <v>16</v>
       </c>
@@ -9682,7 +9686,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="102"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
@@ -9691,7 +9695,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="102"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="18" t="s">
         <v>18</v>
       </c>
@@ -9700,7 +9704,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="102"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="18" t="s">
         <v>13</v>
       </c>
@@ -9709,7 +9713,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="103"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="16" t="s">
         <v>11</v>
       </c>
@@ -9729,39 +9733,39 @@
     </row>
     <row r="22" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="2:4" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="93"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="100"/>
+      <c r="C26" s="106"/>
       <c r="D26" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -9773,7 +9777,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="102"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
@@ -9783,7 +9787,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="102"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="12" t="s">
         <v>8</v>
       </c>
@@ -9793,7 +9797,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="102"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="18" t="s">
         <v>14</v>
       </c>
@@ -9803,7 +9807,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="102"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="18" t="s">
         <v>21</v>
       </c>
@@ -9813,7 +9817,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="102"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="16" t="s">
         <v>15</v>
       </c>
@@ -9823,7 +9827,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="102"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="16" t="s">
         <v>17</v>
       </c>
@@ -9833,7 +9837,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="102"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="18" t="s">
         <v>10</v>
       </c>
@@ -9843,7 +9847,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="102"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="16" t="s">
         <v>9</v>
       </c>
@@ -9853,7 +9857,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="102"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="18" t="s">
         <v>22</v>
       </c>
@@ -9863,7 +9867,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="102"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="18" t="s">
         <v>16</v>
       </c>
@@ -9873,7 +9877,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="102"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="16" t="s">
         <v>20</v>
       </c>
@@ -9883,7 +9887,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="102"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="18" t="s">
         <v>18</v>
       </c>
@@ -9893,7 +9897,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="102"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="18" t="s">
         <v>13</v>
       </c>
@@ -9903,7 +9907,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="103"/>
+      <c r="B41" s="97"/>
       <c r="C41" s="16" t="s">
         <v>11</v>
       </c>
@@ -9922,7 +9926,7 @@
     </row>
     <row r="43" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="44" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -9934,7 +9938,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="102"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="16" t="s">
         <v>19</v>
       </c>
@@ -9944,7 +9948,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="102"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="40" t="s">
         <v>8</v>
       </c>
@@ -9954,7 +9958,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="102"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="18" t="s">
         <v>14</v>
       </c>
@@ -9964,7 +9968,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="102"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="18" t="s">
         <v>21</v>
       </c>
@@ -9974,7 +9978,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="102"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="16" t="s">
         <v>15</v>
       </c>
@@ -9984,7 +9988,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="102"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="16" t="s">
         <v>17</v>
       </c>
@@ -9994,7 +9998,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="102"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="18" t="s">
         <v>10</v>
       </c>
@@ -10004,7 +10008,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="102"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="16" t="s">
         <v>9</v>
       </c>
@@ -10014,7 +10018,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="102"/>
+      <c r="B53" s="96"/>
       <c r="C53" s="18" t="s">
         <v>22</v>
       </c>
@@ -10024,7 +10028,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="102"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="18" t="s">
         <v>16</v>
       </c>
@@ -10034,7 +10038,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="102"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="16" t="s">
         <v>20</v>
       </c>
@@ -10044,7 +10048,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="102"/>
+      <c r="B56" s="96"/>
       <c r="C56" s="18" t="s">
         <v>18</v>
       </c>
@@ -10054,7 +10058,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="102"/>
+      <c r="B57" s="96"/>
       <c r="C57" s="18" t="s">
         <v>13</v>
       </c>
@@ -10064,7 +10068,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="103"/>
+      <c r="B58" s="97"/>
       <c r="C58" s="16" t="s">
         <v>11</v>
       </c>
@@ -10076,7 +10080,7 @@
     </row>
     <row r="59" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="60" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="101" t="s">
+      <c r="B60" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="16" t="s">
@@ -10088,7 +10092,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="102"/>
+      <c r="B61" s="96"/>
       <c r="C61" s="16" t="s">
         <v>19</v>
       </c>
@@ -10098,7 +10102,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="102"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="40" t="s">
         <v>8</v>
       </c>
@@ -10108,7 +10112,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="102"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="18" t="s">
         <v>14</v>
       </c>
@@ -10118,7 +10122,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="102"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="18" t="s">
         <v>21</v>
       </c>
@@ -10128,7 +10132,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="102"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="16" t="s">
         <v>15</v>
       </c>
@@ -10138,7 +10142,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="102"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="16" t="s">
         <v>17</v>
       </c>
@@ -10148,7 +10152,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="102"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="18" t="s">
         <v>10</v>
       </c>
@@ -10158,7 +10162,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="102"/>
+      <c r="B68" s="96"/>
       <c r="C68" s="16" t="s">
         <v>9</v>
       </c>
@@ -10168,7 +10172,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="102"/>
+      <c r="B69" s="96"/>
       <c r="C69" s="18" t="s">
         <v>22</v>
       </c>
@@ -10178,7 +10182,7 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="102"/>
+      <c r="B70" s="96"/>
       <c r="C70" s="18" t="s">
         <v>16</v>
       </c>
@@ -10188,7 +10192,7 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="102"/>
+      <c r="B71" s="96"/>
       <c r="C71" s="16" t="s">
         <v>20</v>
       </c>
@@ -10198,7 +10202,7 @@
       </c>
     </row>
     <row r="72" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="102"/>
+      <c r="B72" s="96"/>
       <c r="C72" s="18" t="s">
         <v>18</v>
       </c>
@@ -10208,7 +10212,7 @@
       </c>
     </row>
     <row r="73" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="102"/>
+      <c r="B73" s="96"/>
       <c r="C73" s="18" t="s">
         <v>13</v>
       </c>
@@ -10218,7 +10222,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="103"/>
+      <c r="B74" s="97"/>
       <c r="C74" s="16" t="s">
         <v>11</v>
       </c>
@@ -10257,7 +10261,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="101" t="s">
+      <c r="B79" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="16" t="s">
@@ -10273,7 +10277,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="102"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="16" t="s">
         <v>19</v>
       </c>
@@ -10287,7 +10291,7 @@
       </c>
     </row>
     <row r="81" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="102"/>
+      <c r="B81" s="96"/>
       <c r="C81" s="40" t="s">
         <v>8</v>
       </c>
@@ -10301,7 +10305,7 @@
       </c>
     </row>
     <row r="82" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="102"/>
+      <c r="B82" s="96"/>
       <c r="C82" s="18" t="s">
         <v>14</v>
       </c>
@@ -10315,7 +10319,7 @@
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="102"/>
+      <c r="B83" s="96"/>
       <c r="C83" s="18" t="s">
         <v>21</v>
       </c>
@@ -10329,7 +10333,7 @@
       </c>
     </row>
     <row r="84" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="102"/>
+      <c r="B84" s="96"/>
       <c r="C84" s="16" t="s">
         <v>15</v>
       </c>
@@ -10343,7 +10347,7 @@
       </c>
     </row>
     <row r="85" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="102"/>
+      <c r="B85" s="96"/>
       <c r="C85" s="16" t="s">
         <v>17</v>
       </c>
@@ -10357,7 +10361,7 @@
       </c>
     </row>
     <row r="86" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="102"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="18" t="s">
         <v>10</v>
       </c>
@@ -10371,7 +10375,7 @@
       </c>
     </row>
     <row r="87" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="102"/>
+      <c r="B87" s="96"/>
       <c r="C87" s="16" t="s">
         <v>9</v>
       </c>
@@ -10385,7 +10389,7 @@
       </c>
     </row>
     <row r="88" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="102"/>
+      <c r="B88" s="96"/>
       <c r="C88" s="18" t="s">
         <v>22</v>
       </c>
@@ -10399,7 +10403,7 @@
       </c>
     </row>
     <row r="89" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="102"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="18" t="s">
         <v>16</v>
       </c>
@@ -10413,7 +10417,7 @@
       </c>
     </row>
     <row r="90" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="102"/>
+      <c r="B90" s="96"/>
       <c r="C90" s="16" t="s">
         <v>20</v>
       </c>
@@ -10427,7 +10431,7 @@
       </c>
     </row>
     <row r="91" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="102"/>
+      <c r="B91" s="96"/>
       <c r="C91" s="18" t="s">
         <v>18</v>
       </c>
@@ -10441,7 +10445,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="102"/>
+      <c r="B92" s="96"/>
       <c r="C92" s="18" t="s">
         <v>13</v>
       </c>
@@ -10455,7 +10459,7 @@
       </c>
     </row>
     <row r="93" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="103"/>
+      <c r="B93" s="97"/>
       <c r="C93" s="16" t="s">
         <v>11</v>
       </c>
@@ -10482,7 +10486,7 @@
       </c>
     </row>
     <row r="96" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="101" t="s">
+      <c r="B96" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C96" s="16" t="s">
@@ -10503,7 +10507,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="102"/>
+      <c r="B97" s="96"/>
       <c r="C97" s="16" t="s">
         <v>19</v>
       </c>
@@ -10522,7 +10526,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="102"/>
+      <c r="B98" s="96"/>
       <c r="C98" s="40" t="s">
         <v>8</v>
       </c>
@@ -10541,7 +10545,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="102"/>
+      <c r="B99" s="96"/>
       <c r="C99" s="18" t="s">
         <v>14</v>
       </c>
@@ -10560,7 +10564,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B100" s="102"/>
+      <c r="B100" s="96"/>
       <c r="C100" s="18" t="s">
         <v>21</v>
       </c>
@@ -10579,7 +10583,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="102"/>
+      <c r="B101" s="96"/>
       <c r="C101" s="16" t="s">
         <v>15</v>
       </c>
@@ -10598,7 +10602,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="102"/>
+      <c r="B102" s="96"/>
       <c r="C102" s="16" t="s">
         <v>17</v>
       </c>
@@ -10617,7 +10621,7 @@
       </c>
     </row>
     <row r="103" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="102"/>
+      <c r="B103" s="96"/>
       <c r="C103" s="18" t="s">
         <v>10</v>
       </c>
@@ -10636,7 +10640,7 @@
       </c>
     </row>
     <row r="104" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="102"/>
+      <c r="B104" s="96"/>
       <c r="C104" s="16" t="s">
         <v>9</v>
       </c>
@@ -10655,7 +10659,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B105" s="102"/>
+      <c r="B105" s="96"/>
       <c r="C105" s="18" t="s">
         <v>22</v>
       </c>
@@ -10674,7 +10678,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="102"/>
+      <c r="B106" s="96"/>
       <c r="C106" s="18" t="s">
         <v>16</v>
       </c>
@@ -10693,7 +10697,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B107" s="102"/>
+      <c r="B107" s="96"/>
       <c r="C107" s="16" t="s">
         <v>20</v>
       </c>
@@ -10712,7 +10716,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B108" s="102"/>
+      <c r="B108" s="96"/>
       <c r="C108" s="18" t="s">
         <v>18</v>
       </c>
@@ -10731,7 +10735,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B109" s="102"/>
+      <c r="B109" s="96"/>
       <c r="C109" s="18" t="s">
         <v>13</v>
       </c>
@@ -10750,7 +10754,7 @@
       </c>
     </row>
     <row r="110" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B110" s="103"/>
+      <c r="B110" s="97"/>
       <c r="C110" s="16" t="s">
         <v>11</v>
       </c>
@@ -10812,39 +10816,39 @@
   <sheetData>
     <row r="1" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="93"/>
+      <c r="C2" s="99"/>
       <c r="D2" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="100"/>
+      <c r="C5" s="106"/>
       <c r="D5" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="101" t="s">
+      <c r="B6" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -10855,7 +10859,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="102"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
@@ -10864,7 +10868,7 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="102"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="12" t="s">
         <v>8</v>
       </c>
@@ -10873,7 +10877,7 @@
       </c>
     </row>
     <row r="9" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="102"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
@@ -10882,7 +10886,7 @@
       </c>
     </row>
     <row r="10" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="102"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="18" t="s">
         <v>21</v>
       </c>
@@ -10891,7 +10895,7 @@
       </c>
     </row>
     <row r="11" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="102"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="16" t="s">
         <v>15</v>
       </c>
@@ -10900,7 +10904,7 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="102"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="16" t="s">
         <v>17</v>
       </c>
@@ -10909,7 +10913,7 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="102"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="18" t="s">
         <v>10</v>
       </c>
@@ -10918,7 +10922,7 @@
       </c>
     </row>
     <row r="14" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="102"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="16" t="s">
         <v>9</v>
       </c>
@@ -10927,7 +10931,7 @@
       </c>
     </row>
     <row r="15" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="102"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="18" t="s">
         <v>22</v>
       </c>
@@ -10936,7 +10940,7 @@
       </c>
     </row>
     <row r="16" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="102"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="18" t="s">
         <v>16</v>
       </c>
@@ -10945,7 +10949,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="102"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
@@ -10954,7 +10958,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="102"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="18" t="s">
         <v>18</v>
       </c>
@@ -10963,7 +10967,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="102"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="18" t="s">
         <v>13</v>
       </c>
@@ -10972,7 +10976,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="103"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="16" t="s">
         <v>11</v>
       </c>
@@ -10992,39 +10996,39 @@
     </row>
     <row r="22" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="23" spans="2:4" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="93"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="49" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="94"/>
-      <c r="C24" s="95"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="94"/>
-      <c r="C25" s="95"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="100"/>
+      <c r="C26" s="106"/>
       <c r="D26" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -11036,7 +11040,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="102"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
@@ -11046,7 +11050,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="102"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="12" t="s">
         <v>8</v>
       </c>
@@ -11056,7 +11060,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="102"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="18" t="s">
         <v>14</v>
       </c>
@@ -11066,7 +11070,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="102"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="18" t="s">
         <v>21</v>
       </c>
@@ -11076,7 +11080,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="102"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="16" t="s">
         <v>15</v>
       </c>
@@ -11086,7 +11090,7 @@
       </c>
     </row>
     <row r="33" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="102"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="16" t="s">
         <v>17</v>
       </c>
@@ -11096,7 +11100,7 @@
       </c>
     </row>
     <row r="34" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="102"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="18" t="s">
         <v>10</v>
       </c>
@@ -11106,7 +11110,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="102"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="16" t="s">
         <v>9</v>
       </c>
@@ -11116,7 +11120,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="102"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="18" t="s">
         <v>22</v>
       </c>
@@ -11126,7 +11130,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="102"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="18" t="s">
         <v>16</v>
       </c>
@@ -11136,7 +11140,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="102"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="16" t="s">
         <v>20</v>
       </c>
@@ -11146,7 +11150,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B39" s="102"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="18" t="s">
         <v>18</v>
       </c>
@@ -11156,7 +11160,7 @@
       </c>
     </row>
     <row r="40" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B40" s="102"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="18" t="s">
         <v>13</v>
       </c>
@@ -11166,7 +11170,7 @@
       </c>
     </row>
     <row r="41" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="103"/>
+      <c r="B41" s="97"/>
       <c r="C41" s="16" t="s">
         <v>11</v>
       </c>
@@ -11185,7 +11189,7 @@
     </row>
     <row r="43" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="44" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="101" t="s">
+      <c r="B44" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="16" t="s">
@@ -11197,7 +11201,7 @@
       </c>
     </row>
     <row r="45" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="102"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="16" t="s">
         <v>19</v>
       </c>
@@ -11207,7 +11211,7 @@
       </c>
     </row>
     <row r="46" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="102"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="40" t="s">
         <v>8</v>
       </c>
@@ -11217,7 +11221,7 @@
       </c>
     </row>
     <row r="47" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="102"/>
+      <c r="B47" s="96"/>
       <c r="C47" s="18" t="s">
         <v>14</v>
       </c>
@@ -11227,7 +11231,7 @@
       </c>
     </row>
     <row r="48" spans="2:4" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="102"/>
+      <c r="B48" s="96"/>
       <c r="C48" s="18" t="s">
         <v>21</v>
       </c>
@@ -11237,7 +11241,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="102"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="16" t="s">
         <v>15</v>
       </c>
@@ -11247,7 +11251,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="102"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="16" t="s">
         <v>17</v>
       </c>
@@ -11257,7 +11261,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="102"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="18" t="s">
         <v>10</v>
       </c>
@@ -11267,7 +11271,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="102"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="16" t="s">
         <v>9</v>
       </c>
@@ -11277,7 +11281,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="102"/>
+      <c r="B53" s="96"/>
       <c r="C53" s="18" t="s">
         <v>22</v>
       </c>
@@ -11287,7 +11291,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="102"/>
+      <c r="B54" s="96"/>
       <c r="C54" s="18" t="s">
         <v>16</v>
       </c>
@@ -11297,7 +11301,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="102"/>
+      <c r="B55" s="96"/>
       <c r="C55" s="16" t="s">
         <v>20</v>
       </c>
@@ -11307,7 +11311,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B56" s="102"/>
+      <c r="B56" s="96"/>
       <c r="C56" s="18" t="s">
         <v>18</v>
       </c>
@@ -11317,7 +11321,7 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B57" s="102"/>
+      <c r="B57" s="96"/>
       <c r="C57" s="18" t="s">
         <v>13</v>
       </c>
@@ -11327,7 +11331,7 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="103"/>
+      <c r="B58" s="97"/>
       <c r="C58" s="16" t="s">
         <v>11</v>
       </c>
@@ -11339,7 +11343,7 @@
     </row>
     <row r="59" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="60" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="101" t="s">
+      <c r="B60" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="16" t="s">
@@ -11351,7 +11355,7 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B61" s="102"/>
+      <c r="B61" s="96"/>
       <c r="C61" s="16" t="s">
         <v>19</v>
       </c>
@@ -11361,7 +11365,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B62" s="102"/>
+      <c r="B62" s="96"/>
       <c r="C62" s="40" t="s">
         <v>8</v>
       </c>
@@ -11371,7 +11375,7 @@
       </c>
     </row>
     <row r="63" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="102"/>
+      <c r="B63" s="96"/>
       <c r="C63" s="18" t="s">
         <v>14</v>
       </c>
@@ -11381,7 +11385,7 @@
       </c>
     </row>
     <row r="64" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="102"/>
+      <c r="B64" s="96"/>
       <c r="C64" s="18" t="s">
         <v>21</v>
       </c>
@@ -11391,7 +11395,7 @@
       </c>
     </row>
     <row r="65" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B65" s="102"/>
+      <c r="B65" s="96"/>
       <c r="C65" s="16" t="s">
         <v>15</v>
       </c>
@@ -11401,7 +11405,7 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B66" s="102"/>
+      <c r="B66" s="96"/>
       <c r="C66" s="16" t="s">
         <v>17</v>
       </c>
@@ -11411,7 +11415,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B67" s="102"/>
+      <c r="B67" s="96"/>
       <c r="C67" s="18" t="s">
         <v>10</v>
       </c>
@@ -11421,7 +11425,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="102"/>
+      <c r="B68" s="96"/>
       <c r="C68" s="16" t="s">
         <v>9</v>
       </c>
@@ -11431,7 +11435,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="102"/>
+      <c r="B69" s="96"/>
       <c r="C69" s="18" t="s">
         <v>22</v>
       </c>
@@ -11441,7 +11445,7 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B70" s="102"/>
+      <c r="B70" s="96"/>
       <c r="C70" s="18" t="s">
         <v>16</v>
       </c>
@@ -11451,7 +11455,7 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B71" s="102"/>
+      <c r="B71" s="96"/>
       <c r="C71" s="16" t="s">
         <v>20</v>
       </c>
@@ -11461,7 +11465,7 @@
       </c>
     </row>
     <row r="72" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B72" s="102"/>
+      <c r="B72" s="96"/>
       <c r="C72" s="18" t="s">
         <v>18</v>
       </c>
@@ -11471,7 +11475,7 @@
       </c>
     </row>
     <row r="73" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B73" s="102"/>
+      <c r="B73" s="96"/>
       <c r="C73" s="18" t="s">
         <v>13</v>
       </c>
@@ -11481,7 +11485,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B74" s="103"/>
+      <c r="B74" s="97"/>
       <c r="C74" s="16" t="s">
         <v>11</v>
       </c>
@@ -11520,7 +11524,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="101" t="s">
+      <c r="B79" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C79" s="16" t="s">
@@ -11536,7 +11540,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B80" s="102"/>
+      <c r="B80" s="96"/>
       <c r="C80" s="16" t="s">
         <v>19</v>
       </c>
@@ -11550,7 +11554,7 @@
       </c>
     </row>
     <row r="81" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="102"/>
+      <c r="B81" s="96"/>
       <c r="C81" s="40" t="s">
         <v>8</v>
       </c>
@@ -11564,7 +11568,7 @@
       </c>
     </row>
     <row r="82" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B82" s="102"/>
+      <c r="B82" s="96"/>
       <c r="C82" s="18" t="s">
         <v>14</v>
       </c>
@@ -11578,7 +11582,7 @@
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B83" s="102"/>
+      <c r="B83" s="96"/>
       <c r="C83" s="18" t="s">
         <v>21</v>
       </c>
@@ -11592,7 +11596,7 @@
       </c>
     </row>
     <row r="84" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B84" s="102"/>
+      <c r="B84" s="96"/>
       <c r="C84" s="16" t="s">
         <v>15</v>
       </c>
@@ -11606,7 +11610,7 @@
       </c>
     </row>
     <row r="85" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="102"/>
+      <c r="B85" s="96"/>
       <c r="C85" s="16" t="s">
         <v>17</v>
       </c>
@@ -11620,7 +11624,7 @@
       </c>
     </row>
     <row r="86" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="102"/>
+      <c r="B86" s="96"/>
       <c r="C86" s="18" t="s">
         <v>10</v>
       </c>
@@ -11634,7 +11638,7 @@
       </c>
     </row>
     <row r="87" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="102"/>
+      <c r="B87" s="96"/>
       <c r="C87" s="16" t="s">
         <v>9</v>
       </c>
@@ -11648,7 +11652,7 @@
       </c>
     </row>
     <row r="88" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="102"/>
+      <c r="B88" s="96"/>
       <c r="C88" s="18" t="s">
         <v>22</v>
       </c>
@@ -11662,7 +11666,7 @@
       </c>
     </row>
     <row r="89" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="102"/>
+      <c r="B89" s="96"/>
       <c r="C89" s="18" t="s">
         <v>16</v>
       </c>
@@ -11676,7 +11680,7 @@
       </c>
     </row>
     <row r="90" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B90" s="102"/>
+      <c r="B90" s="96"/>
       <c r="C90" s="16" t="s">
         <v>20</v>
       </c>
@@ -11690,7 +11694,7 @@
       </c>
     </row>
     <row r="91" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B91" s="102"/>
+      <c r="B91" s="96"/>
       <c r="C91" s="18" t="s">
         <v>18</v>
       </c>
@@ -11704,7 +11708,7 @@
       </c>
     </row>
     <row r="92" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B92" s="102"/>
+      <c r="B92" s="96"/>
       <c r="C92" s="18" t="s">
         <v>13</v>
       </c>
@@ -11718,7 +11722,7 @@
       </c>
     </row>
     <row r="93" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B93" s="103"/>
+      <c r="B93" s="97"/>
       <c r="C93" s="16" t="s">
         <v>11</v>
       </c>
@@ -11745,7 +11749,7 @@
       </c>
     </row>
     <row r="96" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B96" s="101" t="s">
+      <c r="B96" s="95" t="s">
         <v>0</v>
       </c>
       <c r="C96" s="16" t="s">
@@ -11766,7 +11770,7 @@
       </c>
     </row>
     <row r="97" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B97" s="102"/>
+      <c r="B97" s="96"/>
       <c r="C97" s="16" t="s">
         <v>19</v>
       </c>
@@ -11785,7 +11789,7 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B98" s="102"/>
+      <c r="B98" s="96"/>
       <c r="C98" s="40" t="s">
         <v>8</v>
       </c>
@@ -11804,7 +11808,7 @@
       </c>
     </row>
     <row r="99" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B99" s="102"/>
+      <c r="B99" s="96"/>
       <c r="C99" s="18" t="s">
         <v>14</v>
       </c>
@@ -11823,7 +11827,7 @@
       </c>
     </row>
     <row r="100" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B100" s="102"/>
+      <c r="B100" s="96"/>
       <c r="C100" s="18" t="s">
         <v>21</v>
       </c>
@@ -11842,7 +11846,7 @@
       </c>
     </row>
     <row r="101" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B101" s="102"/>
+      <c r="B101" s="96"/>
       <c r="C101" s="16" t="s">
         <v>15</v>
       </c>
@@ -11861,7 +11865,7 @@
       </c>
     </row>
     <row r="102" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B102" s="102"/>
+      <c r="B102" s="96"/>
       <c r="C102" s="16" t="s">
         <v>17</v>
       </c>
@@ -11880,7 +11884,7 @@
       </c>
     </row>
     <row r="103" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B103" s="102"/>
+      <c r="B103" s="96"/>
       <c r="C103" s="18" t="s">
         <v>10</v>
       </c>
@@ -11899,7 +11903,7 @@
       </c>
     </row>
     <row r="104" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B104" s="102"/>
+      <c r="B104" s="96"/>
       <c r="C104" s="16" t="s">
         <v>9</v>
       </c>
@@ -11918,7 +11922,7 @@
       </c>
     </row>
     <row r="105" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B105" s="102"/>
+      <c r="B105" s="96"/>
       <c r="C105" s="18" t="s">
         <v>22</v>
       </c>
@@ -11937,7 +11941,7 @@
       </c>
     </row>
     <row r="106" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B106" s="102"/>
+      <c r="B106" s="96"/>
       <c r="C106" s="18" t="s">
         <v>16</v>
       </c>
@@ -11956,7 +11960,7 @@
       </c>
     </row>
     <row r="107" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B107" s="102"/>
+      <c r="B107" s="96"/>
       <c r="C107" s="16" t="s">
         <v>20</v>
       </c>
@@ -11975,7 +11979,7 @@
       </c>
     </row>
     <row r="108" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B108" s="102"/>
+      <c r="B108" s="96"/>
       <c r="C108" s="18" t="s">
         <v>18</v>
       </c>
@@ -11994,7 +11998,7 @@
       </c>
     </row>
     <row r="109" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B109" s="102"/>
+      <c r="B109" s="96"/>
       <c r="C109" s="18" t="s">
         <v>13</v>
       </c>
@@ -12013,7 +12017,7 @@
       </c>
     </row>
     <row r="110" spans="2:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B110" s="103"/>
+      <c r="B110" s="97"/>
       <c r="C110" s="16" t="s">
         <v>11</v>
       </c>
